--- a/excel/3mo/ph_pl_data_3mo_backup.xlsx
+++ b/excel/3mo/ph_pl_data_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,73 +477,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>^NSEI</t>
+          <t>^NSEBANK</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40422</v>
+        <v>43891</v>
       </c>
       <c r="C2" t="n">
-        <v>5403.0498046875</v>
+        <v>29701</v>
       </c>
       <c r="D2" t="n">
-        <v>6338.5</v>
+        <v>29791.150390625</v>
       </c>
       <c r="E2" t="n">
-        <v>5403.0498046875</v>
+        <v>16116.25</v>
       </c>
       <c r="F2" t="n">
-        <v>5862.7001953125</v>
+        <v>19297.25</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>^NSEI</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43891</v>
+        <v>39083</v>
       </c>
       <c r="C3" t="n">
-        <v>11387.349609375</v>
+        <v>654.7874755859375</v>
       </c>
       <c r="D3" t="n">
-        <v>11433</v>
+        <v>843.7999877929688</v>
       </c>
       <c r="E3" t="n">
-        <v>7511.10009765625</v>
+        <v>601.25</v>
       </c>
       <c r="F3" t="n">
-        <v>9580.2998046875</v>
+        <v>606.9000244140625</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>40391</v>
+        <v>43101</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8000030517578</v>
+        <v>3340</v>
       </c>
       <c r="D4" t="n">
-        <v>185.25</v>
+        <v>3468.35009765625</v>
       </c>
       <c r="E4" t="n">
-        <v>145.3300018310547</v>
+        <v>2732.050048828125</v>
       </c>
       <c r="F4" t="n">
-        <v>151.8999938964844</v>
+        <v>2744.699951171875</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -552,48 +552,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43040</v>
+        <v>39722</v>
       </c>
       <c r="C5" t="n">
-        <v>432</v>
+        <v>300.5</v>
       </c>
       <c r="D5" t="n">
-        <v>452.3500061035156</v>
+        <v>308.5</v>
       </c>
       <c r="E5" t="n">
-        <v>374.0499877929688</v>
+        <v>131</v>
       </c>
       <c r="F5" t="n">
-        <v>428.8500061035156</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41122</v>
+        <v>43831</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5500030517578</v>
+        <v>3183</v>
       </c>
       <c r="D6" t="n">
-        <v>132.8999938964844</v>
+        <v>3315.14990234375</v>
       </c>
       <c r="E6" t="n">
-        <v>105.6500015258789</v>
+        <v>1788.650024414062</v>
       </c>
       <c r="F6" t="n">
-        <v>127.25</v>
+        <v>2022.349975585938</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -602,148 +602,148 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>BHARTIARTL.NS</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43862</v>
+        <v>39356</v>
       </c>
       <c r="C7" t="n">
-        <v>369.7999877929688</v>
+        <v>421.3828430175781</v>
       </c>
       <c r="D7" t="n">
-        <v>378.8999938964844</v>
+        <v>533.6343994140625</v>
       </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>372.6698913574219</v>
       </c>
       <c r="F7" t="n">
-        <v>290.1000061035156</v>
+        <v>449.0063781738281</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>BHARTIARTL.NS</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>40452</v>
+        <v>41183</v>
       </c>
       <c r="C8" t="n">
-        <v>99.97365570068359</v>
+        <v>238.9683685302734</v>
       </c>
       <c r="D8" t="n">
-        <v>120.4741973876953</v>
+        <v>307.058349609375</v>
       </c>
       <c r="E8" t="n">
-        <v>85.83403015136719</v>
+        <v>194.4913177490234</v>
       </c>
       <c r="F8" t="n">
-        <v>99.61345672607422</v>
+        <v>285.7886657714844</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>BHARTIARTL.NS</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42095</v>
+        <v>43374</v>
       </c>
       <c r="C9" t="n">
-        <v>93.31385803222656</v>
+        <v>305.5262145996094</v>
       </c>
       <c r="D9" t="n">
-        <v>312.3918762207031</v>
+        <v>306.4274597167969</v>
       </c>
       <c r="E9" t="n">
-        <v>48.90488433837891</v>
+        <v>249.5130767822266</v>
       </c>
       <c r="F9" t="n">
-        <v>49.50427627563477</v>
+        <v>281.6428833007812</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>DIVISLAB.NS</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>41456</v>
+        <v>39417</v>
       </c>
       <c r="C10" t="n">
-        <v>31.86588478088379</v>
+        <v>409.75</v>
       </c>
       <c r="D10" t="n">
-        <v>33.63621139526367</v>
+        <v>482.4874877929688</v>
       </c>
       <c r="E10" t="n">
-        <v>19.38163185119629</v>
+        <v>292.5</v>
       </c>
       <c r="F10" t="n">
-        <v>21.57346343994141</v>
+        <v>343.8624877929688</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NIFTY_FIN_SERVICE.NS</t>
+          <t>DIVISLAB.NS</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43891</v>
+        <v>44440</v>
       </c>
       <c r="C11" t="n">
-        <v>13824.5</v>
+        <v>5176</v>
       </c>
       <c r="D11" t="n">
-        <v>13875.849609375</v>
+        <v>5425.10009765625</v>
       </c>
       <c r="E11" t="n">
-        <v>7984.2001953125</v>
+        <v>4635</v>
       </c>
       <c r="F11" t="n">
-        <v>9527.0498046875</v>
+        <v>4878.7998046875</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>^NSEBANK</t>
+          <t>DIVISLAB.NS</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43891</v>
+        <v>42795</v>
       </c>
       <c r="C12" t="n">
-        <v>29701</v>
+        <v>762.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>29791.150390625</v>
+        <v>795</v>
       </c>
       <c r="E12" t="n">
-        <v>16116.25</v>
+        <v>532.6500244140625</v>
       </c>
       <c r="F12" t="n">
-        <v>19297.25</v>
+        <v>582.1500244140625</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -752,23 +752,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>^NSEI</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>39083</v>
+        <v>40422</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7874755859375</v>
+        <v>5403.0498046875</v>
       </c>
       <c r="D13" t="n">
-        <v>843.7999877929688</v>
+        <v>6338.5</v>
       </c>
       <c r="E13" t="n">
-        <v>601.25</v>
+        <v>5403.0498046875</v>
       </c>
       <c r="F13" t="n">
-        <v>606.9000244140625</v>
+        <v>5862.7001953125</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -777,98 +777,98 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>^NSEI</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43101</v>
+        <v>43891</v>
       </c>
       <c r="C14" t="n">
-        <v>3340</v>
+        <v>11387.349609375</v>
       </c>
       <c r="D14" t="n">
-        <v>3468.35009765625</v>
+        <v>11433</v>
       </c>
       <c r="E14" t="n">
-        <v>2732.050048828125</v>
+        <v>7511.10009765625</v>
       </c>
       <c r="F14" t="n">
-        <v>2744.699951171875</v>
+        <v>9580.2998046875</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>39722</v>
+        <v>37165</v>
       </c>
       <c r="C15" t="n">
-        <v>300.5</v>
+        <v>445</v>
       </c>
       <c r="D15" t="n">
-        <v>308.5</v>
+        <v>939.5</v>
       </c>
       <c r="E15" t="n">
-        <v>131</v>
+        <v>432.5</v>
       </c>
       <c r="F15" t="n">
-        <v>195.5500030517578</v>
+        <v>461.875</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43831</v>
+        <v>38991</v>
       </c>
       <c r="C16" t="n">
-        <v>3183</v>
+        <v>731.4000244140625</v>
       </c>
       <c r="D16" t="n">
-        <v>3315.14990234375</v>
+        <v>889</v>
       </c>
       <c r="E16" t="n">
-        <v>1788.650024414062</v>
+        <v>701.0999755859375</v>
       </c>
       <c r="F16" t="n">
-        <v>2022.349975585938</v>
+        <v>811.2000122070312</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>APOLLOHOSP.NS</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="C17" t="n">
-        <v>1458.5</v>
+        <v>4213.75</v>
       </c>
       <c r="D17" t="n">
-        <v>1544.900024414062</v>
+        <v>4386.60009765625</v>
       </c>
       <c r="E17" t="n">
-        <v>1292</v>
+        <v>2951</v>
       </c>
       <c r="F17" t="n">
-        <v>1329.300048828125</v>
+        <v>3108.60009765625</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -877,23 +877,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>APOLLOHOSP.NS</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282</v>
+        <v>39814</v>
       </c>
       <c r="C18" t="n">
-        <v>1063</v>
+        <v>473.8999938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>1234.400024414062</v>
+        <v>506</v>
       </c>
       <c r="E18" t="n">
-        <v>910.0999755859375</v>
+        <v>355.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1042.25</v>
+        <v>490.2000122070312</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -902,48 +902,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>39114</v>
+        <v>43466</v>
       </c>
       <c r="C19" t="n">
-        <v>2780</v>
+        <v>2618.10009765625</v>
       </c>
       <c r="D19" t="n">
-        <v>3375.199951171875</v>
+        <v>2878</v>
       </c>
       <c r="E19" t="n">
-        <v>2250</v>
+        <v>1872.949951171875</v>
       </c>
       <c r="F19" t="n">
-        <v>2447.449951171875</v>
+        <v>2780.25</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44409</v>
+        <v>38534</v>
       </c>
       <c r="C20" t="n">
-        <v>1437.5</v>
+        <v>25.02307510375977</v>
       </c>
       <c r="D20" t="n">
-        <v>1932.5</v>
+        <v>291.474365234375</v>
       </c>
       <c r="E20" t="n">
-        <v>1385.275024414062</v>
+        <v>24.00194358825684</v>
       </c>
       <c r="F20" t="n">
-        <v>1782.114990234375</v>
+        <v>32.29438781738281</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -952,23 +952,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="C21" t="n">
-        <v>11.78955554962158</v>
+        <v>6.495019912719727</v>
       </c>
       <c r="D21" t="n">
-        <v>21.02470779418945</v>
+        <v>8.239007949829102</v>
       </c>
       <c r="E21" t="n">
-        <v>8.66041088104248</v>
+        <v>4.396405220031738</v>
       </c>
       <c r="F21" t="n">
-        <v>16.94257545471191</v>
+        <v>6.786495208740234</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -977,48 +977,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BPCL.NS</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43952</v>
+        <v>38534</v>
       </c>
       <c r="C22" t="n">
-        <v>510.4349975585938</v>
+        <v>61.66666412353516</v>
       </c>
       <c r="D22" t="n">
-        <v>671</v>
+        <v>180.1999969482422</v>
       </c>
       <c r="E22" t="n">
-        <v>398.5299987792969</v>
+        <v>56.5</v>
       </c>
       <c r="F22" t="n">
-        <v>620.5900268554688</v>
+        <v>67.48332977294922</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>BPCL.NS</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>38534</v>
+        <v>43009</v>
       </c>
       <c r="C23" t="n">
-        <v>25.02307510375977</v>
+        <v>471.2999877929688</v>
       </c>
       <c r="D23" t="n">
-        <v>291.474365234375</v>
+        <v>551.5499877929688</v>
       </c>
       <c r="E23" t="n">
-        <v>24.00194358825684</v>
+        <v>467</v>
       </c>
       <c r="F23" t="n">
-        <v>32.29438781738281</v>
+        <v>517.7000122070312</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1027,25 +1027,7750 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>BPCL.NS</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16.625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.41666603088379</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.87916564941406</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21.47916603088379</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38.66666412353516</v>
+      </c>
+      <c r="D25" t="n">
+        <v>62.47499847412109</v>
+      </c>
+      <c r="E25" t="n">
+        <v>34.33333206176758</v>
+      </c>
+      <c r="F25" t="n">
+        <v>60.04166412353516</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C26" t="n">
+        <v>372</v>
+      </c>
+      <c r="D26" t="n">
+        <v>383.7999877929688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="F26" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>109.4749984741211</v>
+      </c>
+      <c r="E27" t="n">
+        <v>39.32500076293945</v>
+      </c>
+      <c r="F27" t="n">
+        <v>52.46875</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="C28" t="n">
+        <v>227.1125030517578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>250.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>173.3249969482422</v>
+      </c>
+      <c r="F28" t="n">
+        <v>195.1000061035156</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C29" t="n">
+        <v>907</v>
+      </c>
+      <c r="D29" t="n">
+        <v>993</v>
+      </c>
+      <c r="E29" t="n">
+        <v>839.5499877929688</v>
+      </c>
+      <c r="F29" t="n">
+        <v>860.9500122070312</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.6875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.01249980926514</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.706250190734863</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C31" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="E31" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>68.625</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C32" t="n">
+        <v>532.9000244140625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>589.8499755859375</v>
+      </c>
+      <c r="E32" t="n">
+        <v>245.3999938964844</v>
+      </c>
+      <c r="F32" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13824.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13875.849609375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7984.2001953125</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9527.0498046875</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>36342</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84.06666564941406</v>
+      </c>
+      <c r="D34" t="n">
+        <v>126.4000015258789</v>
+      </c>
+      <c r="E34" t="n">
+        <v>71.66666412353516</v>
+      </c>
+      <c r="F34" t="n">
+        <v>103.125</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C35" t="n">
+        <v>172</v>
+      </c>
+      <c r="D35" t="n">
+        <v>196</v>
+      </c>
+      <c r="E35" t="n">
+        <v>113.0550003051758</v>
+      </c>
+      <c r="F35" t="n">
+        <v>119.8649978637695</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C36" t="n">
+        <v>61.00500106811523</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67.98999786376953</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50.4900016784668</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C37" t="n">
+        <v>132.1000061035156</v>
+      </c>
+      <c r="D37" t="n">
+        <v>137</v>
+      </c>
+      <c r="E37" t="n">
+        <v>98.02500152587891</v>
+      </c>
+      <c r="F37" t="n">
+        <v>132.2449951171875</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3375.199951171875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2447.449951171875</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1437.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1932.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1385.275024414062</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1782.114990234375</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.78955554962158</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21.02470779418945</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.66041088104248</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16.94257545471191</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C41" t="n">
+        <v>510.4349975585938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>671</v>
+      </c>
+      <c r="E41" t="n">
+        <v>398.5299987792969</v>
+      </c>
+      <c r="F41" t="n">
+        <v>620.5900268554688</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C42" t="n">
+        <v>360</v>
+      </c>
+      <c r="D42" t="n">
+        <v>438</v>
+      </c>
+      <c r="E42" t="n">
+        <v>245.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>395.9500122070312</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4422</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4547</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3534.300048828125</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.974999904632568</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.895000457763672</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.454999923706055</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.247499942779541</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>35977</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.902500033378601</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.095000028610229</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.615000009536743</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.795000076293945</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.262500047683716</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.472499966621399</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C47" t="n">
+        <v>99.97365570068359</v>
+      </c>
+      <c r="D47" t="n">
+        <v>120.4741973876953</v>
+      </c>
+      <c r="E47" t="n">
+        <v>85.83403015136719</v>
+      </c>
+      <c r="F47" t="n">
+        <v>99.61345672607422</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="C48" t="n">
+        <v>93.31385803222656</v>
+      </c>
+      <c r="D48" t="n">
+        <v>312.3918762207031</v>
+      </c>
+      <c r="E48" t="n">
+        <v>48.90488433837891</v>
+      </c>
+      <c r="F48" t="n">
+        <v>49.50427627563477</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31.86588478088379</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.63621139526367</v>
+      </c>
+      <c r="E49" t="n">
+        <v>19.38163185119629</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21.57346343994141</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>38718</v>
+      </c>
+      <c r="C50" t="n">
+        <v>865</v>
+      </c>
+      <c r="D50" t="n">
+        <v>940</v>
+      </c>
+      <c r="E50" t="n">
+        <v>819.0999755859375</v>
+      </c>
+      <c r="F50" t="n">
+        <v>890.4500122070312</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3688</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4091.949951171875</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3605</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3774.550048828125</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C52" t="n">
+        <v>697.7000122070312</v>
+      </c>
+      <c r="D52" t="n">
+        <v>785</v>
+      </c>
+      <c r="E52" t="n">
+        <v>550</v>
+      </c>
+      <c r="F52" t="n">
+        <v>694.5499877929688</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2454.89990234375</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2531</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1596.449951171875</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C54" t="n">
+        <v>660.6054077148438</v>
+      </c>
+      <c r="D54" t="n">
+        <v>753.8673095703125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>484.5963439941406</v>
+      </c>
+      <c r="F54" t="n">
+        <v>517.9237670898438</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C55" t="n">
+        <v>427.90771484375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>523.5697631835938</v>
+      </c>
+      <c r="E55" t="n">
+        <v>422.8788757324219</v>
+      </c>
+      <c r="F55" t="n">
+        <v>464.2067260742188</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>342.5776062011719</v>
+      </c>
+      <c r="D56" t="n">
+        <v>348.772216796875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>307.6958312988281</v>
+      </c>
+      <c r="F56" t="n">
+        <v>337.3201904296875</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C57" t="n">
+        <v>168.0000457763672</v>
+      </c>
+      <c r="D57" t="n">
+        <v>187.5000457763672</v>
+      </c>
+      <c r="E57" t="n">
+        <v>149.0625305175781</v>
+      </c>
+      <c r="F57" t="n">
+        <v>184.2187957763672</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C58" t="n">
+        <v>207.206298828125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>254.1000671386719</v>
+      </c>
+      <c r="E58" t="n">
+        <v>201.8813018798828</v>
+      </c>
+      <c r="F58" t="n">
+        <v>235.8188018798828</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C59" t="n">
+        <v>634.7999877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>739.8499755859375</v>
+      </c>
+      <c r="E59" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="F59" t="n">
+        <v>715.3499755859375</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C60" t="n">
+        <v>72.36000061035156</v>
+      </c>
+      <c r="D60" t="n">
+        <v>81.99000549316406</v>
+      </c>
+      <c r="E60" t="n">
+        <v>40.59000015258789</v>
+      </c>
+      <c r="F60" t="n">
+        <v>52.5150032043457</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C61" t="n">
+        <v>180.0000457763672</v>
+      </c>
+      <c r="D61" t="n">
+        <v>187.9312896728516</v>
+      </c>
+      <c r="E61" t="n">
+        <v>153.0375366210938</v>
+      </c>
+      <c r="F61" t="n">
+        <v>177.9187927246094</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C62" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>258.3500061035156</v>
+      </c>
+      <c r="E62" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="F62" t="n">
+        <v>196.6999969482422</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C63" t="n">
+        <v>146.8000030517578</v>
+      </c>
+      <c r="D63" t="n">
+        <v>185.25</v>
+      </c>
+      <c r="E63" t="n">
+        <v>145.3300018310547</v>
+      </c>
+      <c r="F63" t="n">
+        <v>151.8999938964844</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C64" t="n">
+        <v>432</v>
+      </c>
+      <c r="D64" t="n">
+        <v>452.3500061035156</v>
+      </c>
+      <c r="E64" t="n">
+        <v>374.0499877929688</v>
+      </c>
+      <c r="F64" t="n">
+        <v>428.8500061035156</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C65" t="n">
+        <v>121.5500030517578</v>
+      </c>
+      <c r="D65" t="n">
+        <v>132.8999938964844</v>
+      </c>
+      <c r="E65" t="n">
+        <v>105.6500015258789</v>
+      </c>
+      <c r="F65" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C66" t="n">
+        <v>369.7999877929688</v>
+      </c>
+      <c r="D66" t="n">
+        <v>378.8999938964844</v>
+      </c>
+      <c r="E66" t="n">
+        <v>203</v>
+      </c>
+      <c r="F66" t="n">
+        <v>290.1000061035156</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C67" t="n">
+        <v>106.6399993896484</v>
+      </c>
+      <c r="D67" t="n">
+        <v>146.0800018310547</v>
+      </c>
+      <c r="E67" t="n">
+        <v>94</v>
+      </c>
+      <c r="F67" t="n">
+        <v>107.9520034790039</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>38078</v>
+      </c>
+      <c r="C68" t="n">
+        <v>93.83999633789062</v>
+      </c>
+      <c r="D68" t="n">
+        <v>525.2000122070312</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.330400466918945</v>
+      </c>
+      <c r="F68" t="n">
+        <v>84.80000305175781</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C69" t="n">
+        <v>626.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>752.8499755859375</v>
+      </c>
+      <c r="E69" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>712.4500122070312</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>37712</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.2400016784668</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61.52000045776367</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.716800212860107</v>
+      </c>
+      <c r="F70" t="n">
+        <v>60.52799987792969</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C71" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="D71" t="n">
+        <v>235</v>
+      </c>
+      <c r="E71" t="n">
+        <v>145</v>
+      </c>
+      <c r="F71" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C72" t="n">
+        <v>481</v>
+      </c>
+      <c r="D72" t="n">
+        <v>487.4500122070312</v>
+      </c>
+      <c r="E72" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="F72" t="n">
+        <v>422.8500061035156</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C73" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="D73" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="E73" t="n">
+        <v>26.77000045776367</v>
+      </c>
+      <c r="F73" t="n">
+        <v>28.23999977111816</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2729.89990234375</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3348</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2711.89990234375</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3121.330078125</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>36069</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.559999942779541</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.254999995231628</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C76" t="n">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="D76" t="n">
+        <v>26.3799991607666</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13.55500030517578</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23.4950008392334</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1309.589965820312</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1855.109985351562</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1245.010009765625</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1833.430053710938</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP.NS</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1458.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1544.900024414062</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1292</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1329.300048828125</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP.NS</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1234.400024414062</v>
+      </c>
+      <c r="E79" t="n">
+        <v>910.0999755859375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1042.25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C80" t="n">
+        <v>167.8025665283203</v>
+      </c>
+      <c r="D80" t="n">
+        <v>227.7547149658203</v>
+      </c>
+      <c r="E80" t="n">
+        <v>125.6593399047852</v>
+      </c>
+      <c r="F80" t="n">
+        <v>159.0567169189453</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C81" t="n">
+        <v>248</v>
+      </c>
+      <c r="D81" t="n">
+        <v>252.8500061035156</v>
+      </c>
+      <c r="E81" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="F81" t="n">
+        <v>209.1499938964844</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C82" t="n">
+        <v>273</v>
+      </c>
+      <c r="D82" t="n">
+        <v>284</v>
+      </c>
+      <c r="E82" t="n">
+        <v>202.6000061035156</v>
+      </c>
+      <c r="F82" t="n">
+        <v>214.5500030517578</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.495019912719727</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8.239007949829102</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.396405220031738</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.786495208740234</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="C83" t="n">
+        <v>52.40000152587891</v>
+      </c>
+      <c r="D83" t="n">
+        <v>60.95000076293945</v>
+      </c>
+      <c r="E83" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="F83" t="n">
+        <v>52.04999923706055</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C84" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="D84" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>58.79999923706055</v>
+      </c>
+      <c r="F84" t="n">
+        <v>87.94999694824219</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C85" t="n">
+        <v>216.1499938964844</v>
+      </c>
+      <c r="D85" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="E85" t="n">
+        <v>84.90000152587891</v>
+      </c>
+      <c r="F85" t="n">
+        <v>95.69999694824219</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C86" t="n">
+        <v>441</v>
+      </c>
+      <c r="D86" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="E86" t="n">
+        <v>300.7999877929688</v>
+      </c>
+      <c r="F86" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C87" t="n">
+        <v>280</v>
+      </c>
+      <c r="D87" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="E87" t="n">
+        <v>238.1999969482422</v>
+      </c>
+      <c r="F87" t="n">
+        <v>287.9500122070312</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C88" t="n">
+        <v>129.8999938964844</v>
+      </c>
+      <c r="D88" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="E88" t="n">
+        <v>109.5500030517578</v>
+      </c>
+      <c r="F88" t="n">
+        <v>114.1999969482422</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C89" t="n">
+        <v>116.6666641235352</v>
+      </c>
+      <c r="D89" t="n">
+        <v>141.6666717529297</v>
+      </c>
+      <c r="E89" t="n">
+        <v>75.66666412353516</v>
+      </c>
+      <c r="F89" t="n">
+        <v>87.38333129882812</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>120.0999984741211</v>
+      </c>
+      <c r="D90" t="n">
+        <v>146.4666595458984</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100.8333358764648</v>
+      </c>
+      <c r="F90" t="n">
+        <v>115.3000030517578</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C91" t="n">
+        <v>640.9500122070312</v>
+      </c>
+      <c r="D91" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="E91" t="n">
+        <v>581.2999877929688</v>
+      </c>
+      <c r="F91" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C92" t="n">
+        <v>103.4166641235352</v>
+      </c>
+      <c r="D92" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="F92" t="n">
+        <v>72.03333282470703</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C93" t="n">
+        <v>88.36666870117188</v>
+      </c>
+      <c r="D93" t="n">
+        <v>90</v>
+      </c>
+      <c r="E93" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="F93" t="n">
+        <v>86.80000305175781</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C94" t="n">
+        <v>585</v>
+      </c>
+      <c r="D94" t="n">
+        <v>614.9000244140625</v>
+      </c>
+      <c r="E94" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="F94" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1737.300048828125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1701.400024414062</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7978.2001953125</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9996.400390625</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7690</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9729.5498046875</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C97" t="n">
+        <v>695.3499755859375</v>
+      </c>
+      <c r="D97" t="n">
+        <v>749</v>
+      </c>
+      <c r="E97" t="n">
+        <v>433</v>
+      </c>
+      <c r="F97" t="n">
+        <v>520.2000122070312</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4290</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6007.2001953125</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4001.10009765625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5838.2998046875</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C99" t="n">
+        <v>623.9888916015625</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1042.22216796875</v>
+      </c>
+      <c r="E99" t="n">
+        <v>618.066650390625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>926.0888671875</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C100" t="n">
+        <v>916</v>
+      </c>
+      <c r="D100" t="n">
+        <v>983.4222412109375</v>
+      </c>
+      <c r="E100" t="n">
+        <v>842.111083984375</v>
+      </c>
+      <c r="F100" t="n">
+        <v>879.6666870117188</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C101" t="n">
+        <v>995.8666381835938</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1262.533325195312</v>
+      </c>
+      <c r="E101" t="n">
+        <v>990.3666381835938</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1146.433349609375</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1308.400024414062</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1383.699951171875</v>
+      </c>
+      <c r="E102" t="n">
+        <v>661</v>
+      </c>
+      <c r="F102" t="n">
+        <v>808.5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="C103" t="n">
+        <v>98.35440826416016</v>
+      </c>
+      <c r="D103" t="n">
+        <v>109.2294387817383</v>
+      </c>
+      <c r="E103" t="n">
+        <v>83.95336151123047</v>
+      </c>
+      <c r="F103" t="n">
+        <v>85.82176208496094</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C104" t="n">
+        <v>179.5578765869141</v>
+      </c>
+      <c r="D104" t="n">
+        <v>191.2090148925781</v>
+      </c>
+      <c r="E104" t="n">
+        <v>124.607795715332</v>
+      </c>
+      <c r="F104" t="n">
+        <v>152.3175811767578</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C105" t="n">
+        <v>489.2522888183594</v>
+      </c>
+      <c r="D105" t="n">
+        <v>605.901123046875</v>
+      </c>
+      <c r="E105" t="n">
+        <v>484.0085144042969</v>
+      </c>
+      <c r="F105" t="n">
+        <v>544.3612060546875</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12.36975479125977</v>
+      </c>
+      <c r="D106" t="n">
+        <v>16.6526985168457</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.02834033966064</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11.95774936676025</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C107" t="n">
+        <v>68.26776123046875</v>
+      </c>
+      <c r="D107" t="n">
+        <v>70.96878814697266</v>
+      </c>
+      <c r="E107" t="n">
+        <v>24.69511985778809</v>
+      </c>
+      <c r="F107" t="n">
+        <v>31.63072776794434</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C108" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="D108" t="n">
+        <v>201.6999969482422</v>
+      </c>
+      <c r="E108" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>40026</v>
+      </c>
+      <c r="C109" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="D109" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="E109" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="F109" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="C110" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="D110" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="E110" t="n">
+        <v>240</v>
+      </c>
+      <c r="F110" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C111" t="n">
+        <v>711.3800048828125</v>
+      </c>
+      <c r="D111" t="n">
+        <v>750.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>652.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>657.260009765625</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>40210</v>
+      </c>
+      <c r="C112" t="n">
+        <v>259.9949951171875</v>
+      </c>
+      <c r="D112" t="n">
+        <v>324.3999938964844</v>
+      </c>
+      <c r="E112" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>276.3099975585938</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C113" t="n">
+        <v>45.56166839599609</v>
+      </c>
+      <c r="D113" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="E113" t="n">
+        <v>31.63630676269531</v>
+      </c>
+      <c r="F113" t="n">
+        <v>44.94267272949219</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C114" t="n">
+        <v>37.72837066650391</v>
+      </c>
+      <c r="D114" t="n">
+        <v>55.24919509887695</v>
+      </c>
+      <c r="E114" t="n">
+        <v>36.82327270507812</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50.34260559082031</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C115" t="n">
+        <v>69.78795623779297</v>
+      </c>
+      <c r="D115" t="n">
+        <v>75.55201721191406</v>
+      </c>
+      <c r="E115" t="n">
+        <v>55.34999847412109</v>
+      </c>
+      <c r="F115" t="n">
+        <v>57.10499954223633</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C116" t="n">
+        <v>40.96767425537109</v>
+      </c>
+      <c r="D116" t="n">
+        <v>42.57780075073242</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.10012817382812</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20.69343948364258</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C117" t="n">
+        <v>25.92396354675293</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30.37324333190918</v>
+      </c>
+      <c r="E117" t="n">
+        <v>18.60694694519043</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25.87156295776367</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C118" t="n">
+        <v>47.29999923706055</v>
+      </c>
+      <c r="D118" t="n">
+        <v>50.59999847412109</v>
+      </c>
+      <c r="E118" t="n">
+        <v>25.08499908447266</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26.95999908447266</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C119" t="n">
+        <v>230</v>
+      </c>
+      <c r="D119" t="n">
+        <v>323.3999938964844</v>
+      </c>
+      <c r="E119" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>241.2400054931641</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C120" t="n">
+        <v>270.0499877929688</v>
+      </c>
+      <c r="D120" t="n">
+        <v>296</v>
+      </c>
+      <c r="E120" t="n">
+        <v>180</v>
+      </c>
+      <c r="F120" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2484</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2859.300048828125</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2318</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2701.800048828125</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>38169</v>
+      </c>
+      <c r="C122" t="n">
+        <v>127.8499984741211</v>
+      </c>
+      <c r="D122" t="n">
+        <v>131.4499969482422</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25.71999931335449</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1276.099975585938</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1304.849975585938</v>
+      </c>
+      <c r="E124" t="n">
+        <v>738.75</v>
+      </c>
+      <c r="F124" t="n">
+        <v>861.9000244140625</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C125" t="n">
+        <v>13.94265842437744</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24.06657791137695</v>
+      </c>
+      <c r="E125" t="n">
+        <v>10.54219913482666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14.71298980712891</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1200.800048828125</v>
+      </c>
+      <c r="E126" t="n">
+        <v>807.25</v>
+      </c>
+      <c r="F126" t="n">
+        <v>874.5999755859375</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C127" t="n">
+        <v>432.9500122070312</v>
+      </c>
+      <c r="D127" t="n">
+        <v>462.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>312</v>
+      </c>
+      <c r="F127" t="n">
+        <v>352.2999877929688</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C128" t="n">
+        <v>270.0199890136719</v>
+      </c>
+      <c r="D128" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="E128" t="n">
+        <v>230</v>
+      </c>
+      <c r="F128" t="n">
+        <v>294.2099914550781</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C129" t="n">
+        <v>586</v>
+      </c>
+      <c r="D129" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="E129" t="n">
+        <v>507</v>
+      </c>
+      <c r="F129" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C130" t="n">
+        <v>86.59999847412109</v>
+      </c>
+      <c r="D130" t="n">
+        <v>114</v>
+      </c>
+      <c r="E130" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="F130" t="n">
+        <v>111.4599990844727</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C131" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="D131" t="n">
+        <v>252.3000030517578</v>
+      </c>
+      <c r="E131" t="n">
+        <v>152.6799926757812</v>
+      </c>
+      <c r="F131" t="n">
+        <v>244.5399932861328</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C132" t="n">
+        <v>728.5499877929688</v>
+      </c>
+      <c r="D132" t="n">
+        <v>760.7000122070312</v>
+      </c>
+      <c r="E132" t="n">
+        <v>286</v>
+      </c>
+      <c r="F132" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C133" t="n">
+        <v>118.1250305175781</v>
+      </c>
+      <c r="D133" t="n">
+        <v>127.462532043457</v>
+      </c>
+      <c r="E133" t="n">
+        <v>115.3125305175781</v>
+      </c>
+      <c r="F133" t="n">
+        <v>118.6875305175781</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C134" t="n">
+        <v>62.15626525878906</v>
+      </c>
+      <c r="D134" t="n">
+        <v>63.73126602172852</v>
+      </c>
+      <c r="E134" t="n">
+        <v>48.68438720703125</v>
+      </c>
+      <c r="F134" t="n">
+        <v>55.15313720703125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C135" t="n">
+        <v>107.1844024658203</v>
+      </c>
+      <c r="D135" t="n">
+        <v>118.6875305175781</v>
+      </c>
+      <c r="E135" t="n">
+        <v>68.70938873291016</v>
+      </c>
+      <c r="F135" t="n">
+        <v>89.4937744140625</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="C136" t="n">
+        <v>109.25</v>
+      </c>
+      <c r="D136" t="n">
+        <v>438.75</v>
+      </c>
+      <c r="E136" t="n">
+        <v>93.16249847412109</v>
+      </c>
+      <c r="F136" t="n">
+        <v>109.4124984741211</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C137" t="n">
+        <v>450</v>
+      </c>
+      <c r="D137" t="n">
+        <v>529.2249755859375</v>
+      </c>
+      <c r="E137" t="n">
+        <v>417.5499877929688</v>
+      </c>
+      <c r="F137" t="n">
+        <v>440.2749938964844</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.78750038146973</v>
+      </c>
+      <c r="D138" t="n">
+        <v>35.875</v>
+      </c>
+      <c r="E138" t="n">
+        <v>21.66250038146973</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32.52500152587891</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C139" t="n">
+        <v>591.4000244140625</v>
+      </c>
+      <c r="D139" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>375.25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>543.5499877929688</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="C140" t="n">
+        <v>274.25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>347.2374877929688</v>
+      </c>
+      <c r="E140" t="n">
+        <v>262.7875061035156</v>
+      </c>
+      <c r="F140" t="n">
+        <v>319.4750061035156</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1287.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1419.849975585938</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1207.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1303.925048828125</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="C142" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="D142" t="n">
+        <v>218.6000061035156</v>
+      </c>
+      <c r="E142" t="n">
+        <v>103.8375015258789</v>
+      </c>
+      <c r="F142" t="n">
+        <v>134.375</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C143" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="F143" t="n">
+        <v>156.4750061035156</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2253</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1796.099975585938</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C145" t="n">
+        <v>90</v>
+      </c>
+      <c r="D145" t="n">
+        <v>102.7249984741211</v>
+      </c>
+      <c r="E145" t="n">
+        <v>52</v>
+      </c>
+      <c r="F145" t="n">
+        <v>70.55000305175781</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C146" t="n">
+        <v>61.59000015258789</v>
+      </c>
+      <c r="D146" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="E146" t="n">
+        <v>47.59999847412109</v>
+      </c>
+      <c r="F146" t="n">
+        <v>52.79499816894531</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>38718</v>
+      </c>
+      <c r="C147" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="E147" t="n">
+        <v>85.40000152587891</v>
+      </c>
+      <c r="F147" t="n">
+        <v>86.69000244140625</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C148" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>142.8999938964844</v>
+      </c>
+      <c r="F148" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C149" t="n">
+        <v>18.88500022888184</v>
+      </c>
+      <c r="D149" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.75500011444092</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.94499969482422</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.10500335693359</v>
+      </c>
+      <c r="D150" t="n">
+        <v>69.55000305175781</v>
+      </c>
+      <c r="E150" t="n">
+        <v>43.29999923706055</v>
+      </c>
+      <c r="F150" t="n">
+        <v>60.00500106811523</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C151" t="n">
+        <v>146.0500030517578</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="E151" t="n">
+        <v>100</v>
+      </c>
+      <c r="F151" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C152" t="n">
+        <v>202.4583282470703</v>
+      </c>
+      <c r="D152" t="n">
+        <v>242.2916717529297</v>
+      </c>
+      <c r="E152" t="n">
+        <v>138.375</v>
+      </c>
+      <c r="F152" t="n">
+        <v>163.375</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C153" t="n">
+        <v>137.1666717529297</v>
+      </c>
+      <c r="D153" t="n">
+        <v>156.6666717529297</v>
+      </c>
+      <c r="E153" t="n">
+        <v>135.9166717529297</v>
+      </c>
+      <c r="F153" t="n">
+        <v>151.0416717529297</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C154" t="n">
+        <v>112.5833358764648</v>
+      </c>
+      <c r="D154" t="n">
+        <v>115</v>
+      </c>
+      <c r="E154" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="F154" t="n">
+        <v>110.6666641235352</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C155" t="n">
+        <v>112.8499984741211</v>
+      </c>
+      <c r="D155" t="n">
+        <v>118.9000015258789</v>
+      </c>
+      <c r="E155" t="n">
+        <v>73.19999694824219</v>
+      </c>
+      <c r="F155" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>40360</v>
+      </c>
+      <c r="C156" t="n">
+        <v>220.1333312988281</v>
+      </c>
+      <c r="D156" t="n">
+        <v>245.4333343505859</v>
+      </c>
+      <c r="E156" t="n">
+        <v>201.3333282470703</v>
+      </c>
+      <c r="F156" t="n">
+        <v>234.0166625976562</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C157" t="n">
+        <v>214</v>
+      </c>
+      <c r="D157" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="E157" t="n">
+        <v>209.0333404541016</v>
+      </c>
+      <c r="F157" t="n">
+        <v>283.2333374023438</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C158" t="n">
+        <v>195.1999969482422</v>
+      </c>
+      <c r="D158" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="F158" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C159" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="D159" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="E159" t="n">
+        <v>89.69166564941406</v>
+      </c>
+      <c r="F159" t="n">
+        <v>111.1833343505859</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C160" t="n">
+        <v>159.9333343505859</v>
+      </c>
+      <c r="D160" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="E160" t="n">
+        <v>125.1666641235352</v>
+      </c>
+      <c r="F160" t="n">
+        <v>142.7333374023438</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C161" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="D161" t="n">
+        <v>133.3999938964844</v>
+      </c>
+      <c r="E161" t="n">
+        <v>50</v>
+      </c>
+      <c r="F161" t="n">
+        <v>68.30000305175781</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C162" t="n">
+        <v>743</v>
+      </c>
+      <c r="D162" t="n">
+        <v>748.7750244140625</v>
+      </c>
+      <c r="E162" t="n">
+        <v>565.0999755859375</v>
+      </c>
+      <c r="F162" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1838</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1406.25</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1479</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C164" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="D164" t="n">
+        <v>446.8999938964844</v>
+      </c>
+      <c r="E164" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="F164" t="n">
+        <v>385.8500061035156</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C165" t="n">
+        <v>122.0703125</v>
+      </c>
+      <c r="D165" t="n">
+        <v>217.6859436035156</v>
+      </c>
+      <c r="E165" t="n">
+        <v>87.5234375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>140.1585998535156</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C166" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>398.6749877929688</v>
+      </c>
+      <c r="E166" t="n">
+        <v>153.125</v>
+      </c>
+      <c r="F166" t="n">
+        <v>192.4343719482422</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C167" t="n">
+        <v>430.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>437.375</v>
+      </c>
+      <c r="E167" t="n">
+        <v>363.0437622070312</v>
+      </c>
+      <c r="F167" t="n">
+        <v>405.1625061035156</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C168" t="n">
+        <v>178.125</v>
+      </c>
+      <c r="D168" t="n">
+        <v>183.375</v>
+      </c>
+      <c r="E168" t="n">
+        <v>130</v>
+      </c>
+      <c r="F168" t="n">
+        <v>139.4312438964844</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C169" t="n">
+        <v>318.9125061035156</v>
+      </c>
+      <c r="D169" t="n">
+        <v>327.5249938964844</v>
+      </c>
+      <c r="E169" t="n">
+        <v>257.5687561035156</v>
+      </c>
+      <c r="F169" t="n">
+        <v>289.8374938964844</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C170" t="n">
+        <v>470.5499877929688</v>
+      </c>
+      <c r="D170" t="n">
+        <v>514.625</v>
+      </c>
+      <c r="E170" t="n">
+        <v>430</v>
+      </c>
+      <c r="F170" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>25.35111045837402</v>
+      </c>
+      <c r="E171" t="n">
+        <v>19.35555458068848</v>
+      </c>
+      <c r="F171" t="n">
+        <v>24.36111068725586</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C172" t="n">
+        <v>346</v>
+      </c>
+      <c r="D172" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="E172" t="n">
+        <v>256.7999877929688</v>
+      </c>
+      <c r="F172" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C173" t="n">
+        <v>14.82222175598145</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.38888835906982</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.44444370269775</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13.96111106872559</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C174" t="n">
+        <v>218.3999938964844</v>
+      </c>
+      <c r="D174" t="n">
+        <v>224.1333312988281</v>
+      </c>
+      <c r="E174" t="n">
+        <v>178.6666717529297</v>
+      </c>
+      <c r="F174" t="n">
+        <v>218.8333282470703</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C175" t="n">
+        <v>238.6000061035156</v>
+      </c>
+      <c r="D175" t="n">
+        <v>243.8999938964844</v>
+      </c>
+      <c r="E175" t="n">
+        <v>134.6000061035156</v>
+      </c>
+      <c r="F175" t="n">
+        <v>171.6999969482422</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C176" t="n">
+        <v>669</v>
+      </c>
+      <c r="D176" t="n">
+        <v>775.6500244140625</v>
+      </c>
+      <c r="E176" t="n">
+        <v>656</v>
+      </c>
+      <c r="F176" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C177" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="E177" t="n">
+        <v>78.21500396728516</v>
+      </c>
+      <c r="F177" t="n">
+        <v>96.95500183105469</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C178" t="n">
+        <v>113.75</v>
+      </c>
+      <c r="D178" t="n">
+        <v>140</v>
+      </c>
+      <c r="E178" t="n">
+        <v>108.3600006103516</v>
+      </c>
+      <c r="F178" t="n">
+        <v>134.1950073242188</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D179" t="n">
+        <v>38.77000045776367</v>
+      </c>
+      <c r="E179" t="n">
+        <v>16.01000022888184</v>
+      </c>
+      <c r="F179" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C180" t="n">
+        <v>57.09000015258789</v>
+      </c>
+      <c r="D180" t="n">
+        <v>87.58999633789062</v>
+      </c>
+      <c r="E180" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="F180" t="n">
+        <v>86.14500427246094</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C181" t="n">
+        <v>249</v>
+      </c>
+      <c r="D181" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="E181" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>180.6499938964844</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C182" t="n">
+        <v>163.5612640380859</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1174.349975585938</v>
+      </c>
+      <c r="E182" t="n">
+        <v>155.8461151123047</v>
+      </c>
+      <c r="F182" t="n">
+        <v>203.9192504882812</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1129.458984375</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1294.851440429688</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1085.68310546875</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1161.133056640625</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C184" t="n">
+        <v>262.3306884765625</v>
+      </c>
+      <c r="D184" t="n">
+        <v>276.5574340820312</v>
+      </c>
+      <c r="E184" t="n">
+        <v>127.1457443237305</v>
+      </c>
+      <c r="F184" t="n">
+        <v>188.2266235351562</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C185" t="n">
+        <v>743.8423461914062</v>
+      </c>
+      <c r="D185" t="n">
+        <v>833.5855102539062</v>
+      </c>
+      <c r="E185" t="n">
+        <v>383.5250244140625</v>
+      </c>
+      <c r="F185" t="n">
+        <v>474.2144165039062</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C186" t="n">
+        <v>79.09324645996094</v>
+      </c>
+      <c r="D186" t="n">
+        <v>98.73372650146484</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.958624839782715</v>
+      </c>
+      <c r="F186" t="n">
+        <v>70.37403106689453</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="C187" t="n">
+        <v>161.4100036621094</v>
+      </c>
+      <c r="D187" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="E187" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="F187" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C188" t="n">
+        <v>444</v>
+      </c>
+      <c r="D188" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>417.0499877929688</v>
+      </c>
+      <c r="F188" t="n">
+        <v>525.1500244140625</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.44648933410645</v>
+      </c>
+      <c r="D189" t="n">
+        <v>65.52666473388672</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.9943810105323792</v>
+      </c>
+      <c r="F189" t="n">
+        <v>15.2363862991333</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C190" t="n">
+        <v>254.9499969482422</v>
+      </c>
+      <c r="D190" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="E190" t="n">
+        <v>202</v>
+      </c>
+      <c r="F190" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>36192</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.5606849193573</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.952537059783936</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.5606849193573</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4.642436981201172</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C192" t="n">
+        <v>550</v>
+      </c>
+      <c r="D192" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="E192" t="n">
+        <v>511</v>
+      </c>
+      <c r="F192" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C193" t="n">
+        <v>316</v>
+      </c>
+      <c r="D193" t="n">
+        <v>321</v>
+      </c>
+      <c r="E193" t="n">
+        <v>234</v>
+      </c>
+      <c r="F193" t="n">
+        <v>287</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C194" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="E194" t="n">
+        <v>137</v>
+      </c>
+      <c r="F194" t="n">
+        <v>147.0500030517578</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C195" t="n">
+        <v>246.3999938964844</v>
+      </c>
+      <c r="D195" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>230.75</v>
+      </c>
+      <c r="F195" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C196" t="n">
+        <v>78</v>
+      </c>
+      <c r="D196" t="n">
+        <v>83</v>
+      </c>
+      <c r="E196" t="n">
+        <v>43</v>
+      </c>
+      <c r="F196" t="n">
+        <v>70.05000305175781</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C197" t="n">
+        <v>197.1999969482422</v>
+      </c>
+      <c r="D197" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="E197" t="n">
+        <v>136.5500030517578</v>
+      </c>
+      <c r="F197" t="n">
+        <v>155.6999969482422</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>38504</v>
+      </c>
+      <c r="C198" t="n">
+        <v>38.90619277954102</v>
+      </c>
+      <c r="D198" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="E198" t="n">
+        <v>38.40040969848633</v>
+      </c>
+      <c r="F198" t="n">
+        <v>43.66247177124023</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="C199" t="n">
+        <v>100.1931686401367</v>
+      </c>
+      <c r="D199" t="n">
+        <v>164.2230377197266</v>
+      </c>
+      <c r="E199" t="n">
+        <v>99.21078491210938</v>
+      </c>
+      <c r="F199" t="n">
+        <v>144.2447052001953</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C200" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D200" t="n">
+        <v>92.73999786376953</v>
+      </c>
+      <c r="E200" t="n">
+        <v>59.61999893188477</v>
+      </c>
+      <c r="F200" t="n">
+        <v>74.56999969482422</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="C201" t="n">
+        <v>40.0733757019043</v>
+      </c>
+      <c r="D201" t="n">
+        <v>47.27102279663086</v>
+      </c>
+      <c r="E201" t="n">
+        <v>26.54374885559082</v>
+      </c>
+      <c r="F201" t="n">
+        <v>32.91463851928711</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C202" t="n">
+        <v>53.20421600341797</v>
+      </c>
+      <c r="D202" t="n">
+        <v>53.3209342956543</v>
+      </c>
+      <c r="E202" t="n">
+        <v>30.34682846069336</v>
+      </c>
+      <c r="F202" t="n">
+        <v>30.82342910766602</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C203" t="n">
+        <v>29.26000022888184</v>
+      </c>
+      <c r="D203" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="E203" t="n">
+        <v>14.72999954223633</v>
+      </c>
+      <c r="F203" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C204" t="n">
+        <v>40.90000152587891</v>
+      </c>
+      <c r="D204" t="n">
+        <v>42.70000076293945</v>
+      </c>
+      <c r="E204" t="n">
+        <v>17.64999961853027</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7.040403842926025</v>
+      </c>
+      <c r="D205" t="n">
+        <v>250.9666595458984</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.79444408416748</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8.604040145874023</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="C206" t="n">
+        <v>19.61616134643555</v>
+      </c>
+      <c r="D206" t="n">
+        <v>22.74646377563477</v>
+      </c>
+      <c r="E206" t="n">
+        <v>18.98282814025879</v>
+      </c>
+      <c r="F206" t="n">
+        <v>22.24696922302246</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C207" t="n">
+        <v>54.26666641235352</v>
+      </c>
+      <c r="D207" t="n">
+        <v>64.46666717529297</v>
+      </c>
+      <c r="E207" t="n">
+        <v>53.41666412353516</v>
+      </c>
+      <c r="F207" t="n">
+        <v>60.71666717529297</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9.190909385681152</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9.444443702697754</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.505050182342529</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7.569695949554443</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10.40454483032227</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12.05151462554932</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9.020201683044434</v>
+      </c>
+      <c r="F209" t="n">
+        <v>11.59545421600342</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C210" t="n">
+        <v>33.43333435058594</v>
+      </c>
+      <c r="D210" t="n">
+        <v>36.33333206176758</v>
+      </c>
+      <c r="E210" t="n">
+        <v>18.66666603088379</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24.81666564941406</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C211" t="n">
+        <v>55.46250152587891</v>
+      </c>
+      <c r="D211" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>48.92499923706055</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C212" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="D212" t="n">
+        <v>43.92499923706055</v>
+      </c>
+      <c r="E212" t="n">
+        <v>27.57500076293945</v>
+      </c>
+      <c r="F212" t="n">
+        <v>34.27500152587891</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2038</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1690.050048828125</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C214" t="n">
+        <v>38</v>
+      </c>
+      <c r="D214" t="n">
+        <v>46.90000152587891</v>
+      </c>
+      <c r="E214" t="n">
+        <v>26.14999961853027</v>
+      </c>
+      <c r="F214" t="n">
+        <v>32.09999847412109</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1512</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1585</v>
+      </c>
+      <c r="E215" t="n">
+        <v>235.5500030517578</v>
+      </c>
+      <c r="F215" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C216" t="n">
+        <v>27.72999954223633</v>
+      </c>
+      <c r="D216" t="n">
+        <v>139.1000061035156</v>
+      </c>
+      <c r="E216" t="n">
+        <v>27</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27.97999954223633</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.439999580383301</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9.529999732971191</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.199999809265137</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5.110000133514404</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C218" t="n">
+        <v>150.8500061035156</v>
+      </c>
+      <c r="D218" t="n">
+        <v>216.4499969482422</v>
+      </c>
+      <c r="E218" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="F218" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>INDIGO.NS</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="C219" t="n">
+        <v>935</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E219" t="n">
+        <v>691</v>
+      </c>
+      <c r="F219" t="n">
+        <v>888.9000244140625</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C220" t="n">
+        <v>757.0723266601562</v>
+      </c>
+      <c r="D220" t="n">
+        <v>875.8947143554688</v>
+      </c>
+      <c r="E220" t="n">
+        <v>667.529296875</v>
+      </c>
+      <c r="F220" t="n">
+        <v>761.0184936523438</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1404.042724609375</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1625.95166015625</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1239.718139648438</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1266.123046875</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1144.572509765625</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1331.940673828125</v>
+      </c>
+      <c r="E222" t="n">
+        <v>428.7153625488281</v>
+      </c>
+      <c r="F222" t="n">
+        <v>643.7063598632812</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C223" t="n">
+        <v>28.43433570861816</v>
+      </c>
+      <c r="D223" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="E223" t="n">
+        <v>25.33449554443359</v>
+      </c>
+      <c r="F223" t="n">
+        <v>33.56499862670898</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C224" t="n">
+        <v>112.6500015258789</v>
+      </c>
+      <c r="D224" t="n">
+        <v>127.6500015258789</v>
+      </c>
+      <c r="E224" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="F224" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8929579854011536</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9937340021133423</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.7207440137863159</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.8750979900360107</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C226" t="n">
+        <v>40.90499877929688</v>
+      </c>
+      <c r="D226" t="n">
+        <v>42.43999862670898</v>
+      </c>
+      <c r="E226" t="n">
+        <v>22.31500053405762</v>
+      </c>
+      <c r="F226" t="n">
+        <v>28.45999908447266</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C227" t="n">
+        <v>88.25</v>
+      </c>
+      <c r="D227" t="n">
+        <v>96.94999694824219</v>
+      </c>
+      <c r="E227" t="n">
+        <v>35.70000076293945</v>
+      </c>
+      <c r="F227" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C228" t="n">
+        <v>355.510009765625</v>
+      </c>
+      <c r="D228" t="n">
+        <v>437.989990234375</v>
+      </c>
+      <c r="E228" t="n">
+        <v>320</v>
+      </c>
+      <c r="F228" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C229" t="n">
+        <v>556</v>
+      </c>
+      <c r="D229" t="n">
+        <v>816.4000244140625</v>
+      </c>
+      <c r="E229" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="F229" t="n">
+        <v>731.4600219726562</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C230" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="D230" t="n">
+        <v>801.030029296875</v>
+      </c>
+      <c r="E230" t="n">
+        <v>592</v>
+      </c>
+      <c r="F230" t="n">
+        <v>625.9299926757812</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C231" t="n">
+        <v>100</v>
+      </c>
+      <c r="D231" t="n">
+        <v>153.9600067138672</v>
+      </c>
+      <c r="E231" t="n">
+        <v>95.54000091552734</v>
+      </c>
+      <c r="F231" t="n">
+        <v>121.2099990844727</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C232" t="n">
+        <v>483</v>
+      </c>
+      <c r="D232" t="n">
+        <v>520</v>
+      </c>
+      <c r="E232" t="n">
+        <v>354.6900024414062</v>
+      </c>
+      <c r="F232" t="n">
+        <v>388.5599975585938</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C233" t="n">
+        <v>225.4545440673828</v>
+      </c>
+      <c r="D233" t="n">
+        <v>264.6363525390625</v>
+      </c>
+      <c r="E233" t="n">
+        <v>130.9181823730469</v>
+      </c>
+      <c r="F233" t="n">
+        <v>139.8909149169922</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C234" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="D234" t="n">
+        <v>232.5454559326172</v>
+      </c>
+      <c r="E234" t="n">
+        <v>189.2909088134766</v>
+      </c>
+      <c r="F234" t="n">
+        <v>208.1999969482422</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C235" t="n">
+        <v>320.6363525390625</v>
+      </c>
+      <c r="D235" t="n">
+        <v>357.6363525390625</v>
+      </c>
+      <c r="E235" t="n">
+        <v>275.0909118652344</v>
+      </c>
+      <c r="F235" t="n">
+        <v>286.8181762695312</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C236" t="n">
+        <v>81.81818389892578</v>
+      </c>
+      <c r="D236" t="n">
+        <v>97.92726898193359</v>
+      </c>
+      <c r="E236" t="n">
+        <v>45.87272644042969</v>
+      </c>
+      <c r="F236" t="n">
+        <v>60.50909042358398</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C237" t="n">
+        <v>174.5200042724609</v>
+      </c>
+      <c r="D237" t="n">
+        <v>210.3800048828125</v>
+      </c>
+      <c r="E237" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="F237" t="n">
+        <v>179.3399963378906</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C238" t="n">
+        <v>216.0200042724609</v>
+      </c>
+      <c r="D238" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="E238" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="F238" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C239" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="D239" t="n">
+        <v>59.68999862670898</v>
+      </c>
+      <c r="E239" t="n">
+        <v>34.06999969482422</v>
+      </c>
+      <c r="F239" t="n">
+        <v>46.86999893188477</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C240" t="n">
+        <v>115.0899963378906</v>
+      </c>
+      <c r="D240" t="n">
+        <v>124.6900024414062</v>
+      </c>
+      <c r="E240" t="n">
+        <v>85.98999786376953</v>
+      </c>
+      <c r="F240" t="n">
+        <v>98.70999908447266</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C241" t="n">
+        <v>54</v>
+      </c>
+      <c r="D241" t="n">
+        <v>54.79999923706055</v>
+      </c>
+      <c r="E241" t="n">
+        <v>36</v>
+      </c>
+      <c r="F241" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C242" t="n">
+        <v>259.1099853515625</v>
+      </c>
+      <c r="D242" t="n">
+        <v>279.9800109863281</v>
+      </c>
+      <c r="E242" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="F242" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="C243" t="n">
+        <v>177.4600067138672</v>
+      </c>
+      <c r="D243" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="E243" t="n">
+        <v>173.2799987792969</v>
+      </c>
+      <c r="F243" t="n">
+        <v>219.1000061035156</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C244" t="n">
+        <v>129.0500030517578</v>
+      </c>
+      <c r="D244" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="E244" t="n">
+        <v>128.1999969482422</v>
+      </c>
+      <c r="F244" t="n">
+        <v>171.3999938964844</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C245" t="n">
+        <v>105.620002746582</v>
+      </c>
+      <c r="D245" t="n">
+        <v>109.5400009155273</v>
+      </c>
+      <c r="E245" t="n">
+        <v>57.20000076293945</v>
+      </c>
+      <c r="F245" t="n">
+        <v>82.29000091552734</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C246" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D246" t="n">
+        <v>38.40000152587891</v>
+      </c>
+      <c r="E246" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="F246" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C247" t="n">
+        <v>27.79999923706055</v>
+      </c>
+      <c r="D247" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="E247" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="F247" t="n">
+        <v>33.04999923706055</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C248" t="n">
+        <v>265</v>
+      </c>
+      <c r="D248" t="n">
+        <v>309.2250061035156</v>
+      </c>
+      <c r="E248" t="n">
+        <v>183</v>
+      </c>
+      <c r="F248" t="n">
+        <v>271.75</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C249" t="n">
+        <v>28.45001411437988</v>
+      </c>
+      <c r="D249" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="E249" t="n">
+        <v>26.00001335144043</v>
+      </c>
+      <c r="F249" t="n">
+        <v>32.93751525878906</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C250" t="n">
+        <v>96.00942230224609</v>
+      </c>
+      <c r="D250" t="n">
+        <v>100.8281784057617</v>
+      </c>
+      <c r="E250" t="n">
+        <v>79.68753814697266</v>
+      </c>
+      <c r="F250" t="n">
+        <v>87.00004577636719</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C251" t="n">
+        <v>113.4499969482422</v>
+      </c>
+      <c r="D251" t="n">
+        <v>133.1333312988281</v>
+      </c>
+      <c r="E251" t="n">
+        <v>110.8833312988281</v>
+      </c>
+      <c r="F251" t="n">
+        <v>126.3333358764648</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C252" t="n">
+        <v>8.137503623962402</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8.500003814697266</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5.375001907348633</v>
+      </c>
+      <c r="F252" t="n">
+        <v>6.325003147125244</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C253" t="n">
+        <v>73.50003814697266</v>
+      </c>
+      <c r="D253" t="n">
+        <v>75.22503662109375</v>
+      </c>
+      <c r="E253" t="n">
+        <v>48.7593994140625</v>
+      </c>
+      <c r="F253" t="n">
+        <v>56.68127822875977</v>
+      </c>
+      <c r="G253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C254" t="n">
+        <v>80.93333435058594</v>
+      </c>
+      <c r="D254" t="n">
+        <v>88.90000152587891</v>
+      </c>
+      <c r="E254" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="F254" t="n">
+        <v>51.03333282470703</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C255" t="n">
+        <v>675</v>
+      </c>
+      <c r="D255" t="n">
+        <v>727.4583129882812</v>
+      </c>
+      <c r="E255" t="n">
+        <v>646.0833129882812</v>
+      </c>
+      <c r="F255" t="n">
+        <v>674.1666870117188</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C256" t="n">
+        <v>11.01190376281738</v>
+      </c>
+      <c r="D256" t="n">
+        <v>11.05654716491699</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7.157738208770752</v>
+      </c>
+      <c r="F256" t="n">
+        <v>10.1488094329834</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C257" t="n">
+        <v>323.9400024414062</v>
+      </c>
+      <c r="D257" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="E257" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="F257" t="n">
+        <v>281.1900024414062</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C258" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="D258" t="n">
+        <v>336</v>
+      </c>
+      <c r="E258" t="n">
+        <v>255.1999969482422</v>
+      </c>
+      <c r="F258" t="n">
+        <v>267.0499877929688</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C259" t="n">
+        <v>20.30928611755371</v>
+      </c>
+      <c r="D259" t="n">
+        <v>21.97459983825684</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13.21400928497314</v>
+      </c>
+      <c r="F259" t="n">
+        <v>15.56337642669678</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C260" t="n">
+        <v>196.3000030517578</v>
+      </c>
+      <c r="D260" t="n">
+        <v>202.8999938964844</v>
+      </c>
+      <c r="E260" t="n">
+        <v>145.2700042724609</v>
+      </c>
+      <c r="F260" t="n">
+        <v>161.4900054931641</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C261" t="n">
+        <v>194</v>
+      </c>
+      <c r="D261" t="n">
+        <v>198</v>
+      </c>
+      <c r="E261" t="n">
+        <v>149.4499969482422</v>
+      </c>
+      <c r="F261" t="n">
+        <v>178.4499969482422</v>
+      </c>
+      <c r="G261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>40330</v>
+      </c>
+      <c r="C262" t="n">
+        <v>655.7999877929688</v>
+      </c>
+      <c r="D262" t="n">
+        <v>796.0999755859375</v>
+      </c>
+      <c r="E262" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="F262" t="n">
+        <v>684.25</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C263" t="n">
+        <v>173.4499969482422</v>
+      </c>
+      <c r="D263" t="n">
+        <v>294.2999877929688</v>
+      </c>
+      <c r="E263" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="F263" t="n">
+        <v>254.3999938964844</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C264" t="n">
+        <v>91.30000305175781</v>
+      </c>
+      <c r="D264" t="n">
+        <v>98.15000152587891</v>
+      </c>
+      <c r="E264" t="n">
+        <v>48.09999847412109</v>
+      </c>
+      <c r="F264" t="n">
+        <v>53.40000152587891</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C265" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="D265" t="n">
+        <v>163.9499969482422</v>
+      </c>
+      <c r="E265" t="n">
+        <v>62</v>
+      </c>
+      <c r="F265" t="n">
+        <v>121.5500030517578</v>
+      </c>
+      <c r="G265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2.554519891738892</v>
+      </c>
+      <c r="D266" t="n">
+        <v>15.80246925354004</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.554519891738892</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3.094208002090454</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C267" t="n">
+        <v>91.91012573242188</v>
+      </c>
+      <c r="D267" t="n">
+        <v>108.0845565795898</v>
+      </c>
+      <c r="E267" t="n">
+        <v>91.19976043701172</v>
+      </c>
+      <c r="F267" t="n">
+        <v>103.6174621582031</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C268" t="n">
+        <v>4.455119132995605</v>
+      </c>
+      <c r="D268" t="n">
+        <v>4.803217887878418</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.131764888763428</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3.281299114227295</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C269" t="n">
+        <v>60.24429702758789</v>
+      </c>
+      <c r="D269" t="n">
+        <v>61.88359832763672</v>
+      </c>
+      <c r="E269" t="n">
+        <v>19.9379940032959</v>
+      </c>
+      <c r="F269" t="n">
+        <v>25.01982688903809</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C270" t="n">
+        <v>139.927490234375</v>
+      </c>
+      <c r="D270" t="n">
+        <v>159.2085266113281</v>
+      </c>
+      <c r="E270" t="n">
+        <v>98.52825164794922</v>
+      </c>
+      <c r="F270" t="n">
+        <v>113.0517578125</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C271" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="D271" t="n">
+        <v>101.8000030517578</v>
+      </c>
+      <c r="E271" t="n">
+        <v>77</v>
+      </c>
+      <c r="F271" t="n">
+        <v>79</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>36617</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6.557291030883789</v>
+      </c>
+      <c r="D272" t="n">
+        <v>9.399267196655273</v>
+      </c>
+      <c r="E272" t="n">
+        <v>4.270199775695801</v>
+      </c>
+      <c r="F272" t="n">
+        <v>7.811812877655029</v>
+      </c>
+      <c r="G272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C273" t="n">
+        <v>68.09999847412109</v>
+      </c>
+      <c r="D273" t="n">
+        <v>70.69999694824219</v>
+      </c>
+      <c r="E273" t="n">
+        <v>55</v>
+      </c>
+      <c r="F273" t="n">
+        <v>64.65000152587891</v>
+      </c>
+      <c r="G273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C274" t="n">
+        <v>32.29999923706055</v>
+      </c>
+      <c r="D274" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="E274" t="n">
+        <v>27</v>
+      </c>
+      <c r="F274" t="n">
+        <v>44.84999847412109</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C275" t="n">
+        <v>35.41666412353516</v>
+      </c>
+      <c r="D275" t="n">
+        <v>202.125</v>
+      </c>
+      <c r="E275" t="n">
+        <v>32.07500076293945</v>
+      </c>
+      <c r="F275" t="n">
+        <v>37.65833282470703</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>40360</v>
+      </c>
+      <c r="C276" t="n">
+        <v>67.16666412353516</v>
+      </c>
+      <c r="D276" t="n">
+        <v>76.15000152587891</v>
+      </c>
+      <c r="E276" t="n">
+        <v>58.71666717529297</v>
+      </c>
+      <c r="F276" t="n">
+        <v>69.46666717529297</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C277" t="n">
+        <v>128.3999938964844</v>
+      </c>
+      <c r="D277" t="n">
+        <v>154.3166656494141</v>
+      </c>
+      <c r="E277" t="n">
+        <v>121.3666687011719</v>
+      </c>
+      <c r="F277" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C278" t="n">
+        <v>34</v>
+      </c>
+      <c r="D278" t="n">
+        <v>38.33333206176758</v>
+      </c>
+      <c r="E278" t="n">
+        <v>25</v>
+      </c>
+      <c r="F278" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C279" t="n">
+        <v>39.63333129882812</v>
+      </c>
+      <c r="D279" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E279" t="n">
+        <v>31</v>
+      </c>
+      <c r="F279" t="n">
+        <v>34.64166641235352</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C280" t="n">
+        <v>54.43333435058594</v>
+      </c>
+      <c r="D280" t="n">
+        <v>64.26666259765625</v>
+      </c>
+      <c r="E280" t="n">
+        <v>47.43333435058594</v>
+      </c>
+      <c r="F280" t="n">
+        <v>56.90000152587891</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C281" t="n">
+        <v>61.66666412353516</v>
+      </c>
+      <c r="D281" t="n">
+        <v>66.48666381835938</v>
+      </c>
+      <c r="E281" t="n">
+        <v>41.66666412353516</v>
+      </c>
+      <c r="F281" t="n">
+        <v>53.86999893188477</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C282" t="n">
+        <v>817.6666870117188</v>
+      </c>
+      <c r="D282" t="n">
+        <v>978.6666870117188</v>
+      </c>
+      <c r="E282" t="n">
+        <v>738.75</v>
+      </c>
+      <c r="F282" t="n">
+        <v>768.6500244140625</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C283" t="n">
+        <v>684.9000244140625</v>
+      </c>
+      <c r="D283" t="n">
+        <v>772</v>
+      </c>
+      <c r="E283" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="F283" t="n">
+        <v>520.8499755859375</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C284" t="n">
+        <v>29570</v>
+      </c>
+      <c r="D284" t="n">
+        <v>32048</v>
+      </c>
+      <c r="E284" t="n">
+        <v>26510</v>
+      </c>
+      <c r="F284" t="n">
+        <v>27504.599609375</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C285" t="n">
+        <v>506</v>
+      </c>
+      <c r="D285" t="n">
+        <v>590</v>
+      </c>
+      <c r="E285" t="n">
+        <v>320</v>
+      </c>
+      <c r="F285" t="n">
+        <v>460.1000061035156</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C286" t="n">
+        <v>687</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E286" t="n">
+        <v>645</v>
+      </c>
+      <c r="F286" t="n">
+        <v>945.1500244140625</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="C287" t="n">
+        <v>893</v>
+      </c>
+      <c r="D287" t="n">
+        <v>950</v>
+      </c>
+      <c r="E287" t="n">
+        <v>812.4000244140625</v>
+      </c>
+      <c r="F287" t="n">
+        <v>837.75</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1354</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1559.699951171875</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1105.650024414062</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1325.949951171875</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C289" t="n">
+        <v>290</v>
+      </c>
+      <c r="D289" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="E289" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="F289" t="n">
+        <v>268.1000061035156</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C290" t="n">
+        <v>562.1500244140625</v>
+      </c>
+      <c r="D290" t="n">
+        <v>591.0999755859375</v>
+      </c>
+      <c r="E290" t="n">
+        <v>414</v>
+      </c>
+      <c r="F290" t="n">
+        <v>477.6000061035156</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C291" t="n">
+        <v>944.9000244140625</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E291" t="n">
+        <v>850.25</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1046.900024414062</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C292" t="n">
+        <v>259.4500122070312</v>
+      </c>
+      <c r="D292" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="E292" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="F292" t="n">
+        <v>201.25</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C293" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D293" t="n">
+        <v>122.75</v>
+      </c>
+      <c r="E293" t="n">
+        <v>72.34999847412109</v>
+      </c>
+      <c r="F293" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C294" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="D294" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="E294" t="n">
+        <v>114.5500030517578</v>
+      </c>
+      <c r="F294" t="n">
+        <v>137.4499969482422</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C295" t="n">
+        <v>572.4000244140625</v>
+      </c>
+      <c r="D295" t="n">
+        <v>658.9500122070312</v>
+      </c>
+      <c r="E295" t="n">
+        <v>569.9000244140625</v>
+      </c>
+      <c r="F295" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="C296" t="n">
+        <v>910</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1182.400024414062</v>
+      </c>
+      <c r="E296" t="n">
+        <v>886.5999755859375</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="C297" t="n">
+        <v>706</v>
+      </c>
+      <c r="D297" t="n">
+        <v>843</v>
+      </c>
+      <c r="E297" t="n">
+        <v>640</v>
+      </c>
+      <c r="F297" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="C298" t="n">
+        <v>471</v>
+      </c>
+      <c r="D298" t="n">
+        <v>495</v>
+      </c>
+      <c r="E298" t="n">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="F298" t="n">
+        <v>352.6499938964844</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C299" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D299" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="E299" t="n">
+        <v>178</v>
+      </c>
+      <c r="F299" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C300" t="n">
+        <v>331</v>
+      </c>
+      <c r="D300" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="E300" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="F300" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>36800</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.102499961853027</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.467499971389771</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.9275000095367432</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.846250057220459</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C302" t="n">
+        <v>90.90000152587891</v>
+      </c>
+      <c r="D302" t="n">
+        <v>98.19999694824219</v>
+      </c>
+      <c r="E302" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="F302" t="n">
+        <v>89.84999847412109</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C303" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="D303" t="n">
+        <v>166.1000061035156</v>
+      </c>
+      <c r="E303" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="F303" t="n">
+        <v>64.69999694824219</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C304" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="D304" t="n">
+        <v>724.2999877929688</v>
+      </c>
+      <c r="E304" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="F304" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C305" t="n">
+        <v>476</v>
+      </c>
+      <c r="D305" t="n">
+        <v>484.5499877929688</v>
+      </c>
+      <c r="E305" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="F305" t="n">
+        <v>393.1000061035156</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3978</v>
+      </c>
+      <c r="D306" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3875.10009765625</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4710.89990234375</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="C307" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="D307" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="E307" t="n">
+        <v>55.84999847412109</v>
+      </c>
+      <c r="F307" t="n">
+        <v>80.375</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="C308" t="n">
+        <v>74</v>
+      </c>
+      <c r="D308" t="n">
+        <v>87.40000152587891</v>
+      </c>
+      <c r="E308" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="F308" t="n">
+        <v>54.45000076293945</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C309" t="n">
+        <v>728</v>
+      </c>
+      <c r="D309" t="n">
+        <v>794.4500122070312</v>
+      </c>
+      <c r="E309" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="F309" t="n">
+        <v>696.7999877929688</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C310" t="n">
+        <v>15.72500038146973</v>
+      </c>
+      <c r="D310" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="E310" t="n">
+        <v>7.474999904632568</v>
+      </c>
+      <c r="F310" t="n">
+        <v>8.324999809265137</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C311" t="n">
+        <v>38.34999847412109</v>
+      </c>
+      <c r="D311" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="E311" t="n">
+        <v>28.10000038146973</v>
+      </c>
+      <c r="F311" t="n">
+        <v>31.14999961853027</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C312" t="n">
+        <v>466</v>
+      </c>
+      <c r="D312" t="n">
+        <v>483</v>
+      </c>
+      <c r="E312" t="n">
+        <v>240.1000061035156</v>
+      </c>
+      <c r="F312" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="G312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3375.199951171875</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2447.449951171875</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C314" t="n">
+        <v>224</v>
+      </c>
+      <c r="D314" t="n">
+        <v>432.6499938964844</v>
+      </c>
+      <c r="E314" t="n">
+        <v>209</v>
+      </c>
+      <c r="F314" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3459.949951171875</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3950</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1460.150024414062</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2037.800048828125</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C316" t="n">
+        <v>53.28616333007812</v>
+      </c>
+      <c r="D316" t="n">
+        <v>558.8966064453125</v>
+      </c>
+      <c r="E316" t="n">
+        <v>51.45672607421875</v>
+      </c>
+      <c r="F316" t="n">
+        <v>70.23878479003906</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C317" t="n">
+        <v>37.98694229125977</v>
+      </c>
+      <c r="D317" t="n">
+        <v>42.52684783935547</v>
+      </c>
+      <c r="E317" t="n">
+        <v>19.9326171875</v>
+      </c>
+      <c r="F317" t="n">
+        <v>27.30258941650391</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4205</v>
+      </c>
+      <c r="D318" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E318" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F318" t="n">
+        <v>5144.7998046875</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C319" t="n">
+        <v>19307.05078125</v>
+      </c>
+      <c r="D319" t="n">
+        <v>27990</v>
+      </c>
+      <c r="E319" t="n">
+        <v>18900</v>
+      </c>
+      <c r="F319" t="n">
+        <v>25421.349609375</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15399.650390625</v>
+      </c>
+      <c r="D320" t="n">
+        <v>15550</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7850</v>
+      </c>
+      <c r="F320" t="n">
+        <v>9395.5498046875</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C321" t="n">
+        <v>34.34999847412109</v>
+      </c>
+      <c r="D321" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="E321" t="n">
+        <v>34.2599983215332</v>
+      </c>
+      <c r="F321" t="n">
+        <v>63.52999877929688</v>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C322" t="n">
+        <v>58.40000152587891</v>
+      </c>
+      <c r="D322" t="n">
+        <v>88.80000305175781</v>
+      </c>
+      <c r="E322" t="n">
+        <v>56.29999923706055</v>
+      </c>
+      <c r="F322" t="n">
+        <v>70.69999694824219</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C323" t="n">
+        <v>14.63000011444092</v>
+      </c>
+      <c r="D323" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="F323" t="n">
+        <v>14.85999965667725</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C324" t="n">
+        <v>30</v>
+      </c>
+      <c r="D324" t="n">
+        <v>34.20000076293945</v>
+      </c>
+      <c r="E324" t="n">
+        <v>25.20999908447266</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33.07000350952148</v>
+      </c>
+      <c r="G324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C325" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7465.39990234375</v>
+      </c>
+      <c r="E325" t="n">
+        <v>5182.0498046875</v>
+      </c>
+      <c r="F325" t="n">
+        <v>6075.35009765625</v>
+      </c>
+      <c r="G325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C326" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="E326" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="F326" t="n">
+        <v>69.80999755859375</v>
+      </c>
+      <c r="G326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C327" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="D327" t="n">
+        <v>16</v>
+      </c>
+      <c r="E327" t="n">
+        <v>10</v>
+      </c>
+      <c r="F327" t="n">
+        <v>14.4350004196167</v>
+      </c>
+      <c r="G327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C328" t="n">
+        <v>480</v>
+      </c>
+      <c r="D328" t="n">
+        <v>593.4000244140625</v>
+      </c>
+      <c r="E328" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="F328" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="G328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1384.166748046875</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1632.693115234375</v>
+      </c>
+      <c r="E329" t="n">
+        <v>906.9508666992188</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1071.227905273438</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1281.896484375</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1588.026489257812</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1150.48388671875</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1175.359252929688</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C331" t="n">
+        <v>557.33447265625</v>
+      </c>
+      <c r="D331" t="n">
+        <v>569.9536743164062</v>
+      </c>
+      <c r="E331" t="n">
+        <v>390.3792419433594</v>
+      </c>
+      <c r="F331" t="n">
+        <v>492.4679565429688</v>
+      </c>
+      <c r="G331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C332" t="n">
+        <v>935.4000244140625</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E332" t="n">
+        <v>722</v>
+      </c>
+      <c r="F332" t="n">
+        <v>941.1500244140625</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>COCHINSHIP.NS</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C333" t="n">
+        <v>189.5749969482422</v>
+      </c>
+      <c r="D333" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="E333" t="n">
+        <v>104.5500030517578</v>
+      </c>
+      <c r="F333" t="n">
+        <v>123.875</v>
+      </c>
+      <c r="G333" t="n">
         <v>2</v>
       </c>
     </row>

--- a/excel/3mo/ph_pl_data_3mo_backup.xlsx
+++ b/excel/3mo/ph_pl_data_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,151 +477,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>NIFTY_FIN_SERVICE.NS</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40391</v>
+        <v>43891</v>
       </c>
       <c r="C2" t="n">
-        <v>185.25</v>
+        <v>13875.849609375</v>
       </c>
       <c r="D2" t="n">
-        <v>145.3300018310547</v>
+        <v>7984.2001953125</v>
       </c>
       <c r="E2" t="n">
-        <v>151.8999938964844</v>
+        <v>9527.0498046875</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>185.25</v>
+        <v>7984.2001953125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>APOLLOHOSP.NS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43040</v>
+        <v>42370</v>
       </c>
       <c r="C3" t="n">
-        <v>452.3500061035156</v>
+        <v>1544.900024414062</v>
       </c>
       <c r="D3" t="n">
-        <v>374.0499877929688</v>
+        <v>1292</v>
       </c>
       <c r="E3" t="n">
-        <v>428.8500061035156</v>
+        <v>1329.300048828125</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>452.3500061035156</v>
+        <v>1544.900024414062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>APOLLOHOSP.NS</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>41122</v>
+        <v>43282</v>
       </c>
       <c r="C4" t="n">
-        <v>132.8999938964844</v>
+        <v>1234.400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>105.6500015258789</v>
+        <v>910.0999755859375</v>
       </c>
       <c r="E4" t="n">
-        <v>127.25</v>
+        <v>1042.25</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>105.6500015258789</v>
+        <v>910.0999755859375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43862</v>
+        <v>38534</v>
       </c>
       <c r="C5" t="n">
-        <v>378.8999938964844</v>
+        <v>291.474365234375</v>
       </c>
       <c r="D5" t="n">
-        <v>203</v>
+        <v>24.00194358825684</v>
       </c>
       <c r="E5" t="n">
-        <v>290.1000061035156</v>
+        <v>32.29438781738281</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>203</v>
+        <v>291.474365234375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIFTY_FIN_SERVICE.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43891</v>
+        <v>39814</v>
       </c>
       <c r="C6" t="n">
-        <v>13875.849609375</v>
+        <v>8.239007949829102</v>
       </c>
       <c r="D6" t="n">
-        <v>7984.2001953125</v>
+        <v>4.396405220031738</v>
       </c>
       <c r="E6" t="n">
-        <v>9527.0498046875</v>
+        <v>6.786495208740234</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>7984.2001953125</v>
+        <v>4.396405220031738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>^NSEBANK</t>
+          <t>^NSEI</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43891</v>
+        <v>40422</v>
       </c>
       <c r="C7" t="n">
-        <v>29791.150390625</v>
+        <v>6338.5</v>
       </c>
       <c r="D7" t="n">
-        <v>16116.25</v>
+        <v>5403.0498046875</v>
       </c>
       <c r="E7" t="n">
-        <v>19297.25</v>
+        <v>5862.7001953125</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>16116.25</v>
+        <v>6338.5</v>
       </c>
     </row>
     <row r="8">
@@ -631,422 +631,8147 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>40422</v>
+        <v>43891</v>
       </c>
       <c r="C8" t="n">
-        <v>6338.5</v>
+        <v>11433</v>
       </c>
       <c r="D8" t="n">
-        <v>5403.0498046875</v>
+        <v>7511.10009765625</v>
       </c>
       <c r="E8" t="n">
-        <v>5862.7001953125</v>
+        <v>9580.2998046875</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>6338.5</v>
+        <v>7511.10009765625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>^NSEI</t>
+          <t>^NSEBANK</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>43891</v>
       </c>
       <c r="C9" t="n">
-        <v>11433</v>
+        <v>29791.150390625</v>
       </c>
       <c r="D9" t="n">
-        <v>7511.10009765625</v>
+        <v>16116.25</v>
       </c>
       <c r="E9" t="n">
-        <v>9580.2998046875</v>
+        <v>19297.25</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>7511.10009765625</v>
+        <v>16116.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APOLLOHOSP.NS</t>
+          <t>ADANIENT.NS</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42370</v>
+        <v>40452</v>
       </c>
       <c r="C10" t="n">
-        <v>1544.900024414062</v>
+        <v>120.4741973876953</v>
       </c>
       <c r="D10" t="n">
-        <v>1292</v>
+        <v>85.83403015136719</v>
       </c>
       <c r="E10" t="n">
-        <v>1329.300048828125</v>
+        <v>99.61345672607422</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1544.900024414062</v>
+        <v>120.4741973876953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>APOLLOHOSP.NS</t>
+          <t>ADANIENT.NS</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282</v>
+        <v>42095</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.400024414062</v>
+        <v>312.3918762207031</v>
       </c>
       <c r="D11" t="n">
-        <v>910.0999755859375</v>
+        <v>48.90488433837891</v>
       </c>
       <c r="E11" t="n">
-        <v>1042.25</v>
+        <v>49.50427627563477</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>910.0999755859375</v>
+        <v>312.3918762207031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>ADANIENT.NS</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>38534</v>
+        <v>41456</v>
       </c>
       <c r="C12" t="n">
-        <v>291.474365234375</v>
+        <v>33.63621139526367</v>
       </c>
       <c r="D12" t="n">
-        <v>24.00194358825684</v>
+        <v>19.38163185119629</v>
       </c>
       <c r="E12" t="n">
-        <v>32.29438781738281</v>
+        <v>21.57346343994141</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>291.474365234375</v>
+        <v>19.38163185119629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>BAJAJFINSV.NS</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>39814</v>
+        <v>39114</v>
       </c>
       <c r="C13" t="n">
-        <v>8.239007949829102</v>
+        <v>3375.199951171875</v>
       </c>
       <c r="D13" t="n">
-        <v>4.396405220031738</v>
+        <v>2250</v>
       </c>
       <c r="E13" t="n">
-        <v>6.786495208740234</v>
+        <v>2447.449951171875</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4.396405220031738</v>
+        <v>3375.199951171875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>BAJAJFINSV.NS</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>40452</v>
+        <v>44409</v>
       </c>
       <c r="C14" t="n">
-        <v>120.4741973876953</v>
+        <v>1932.5</v>
       </c>
       <c r="D14" t="n">
-        <v>85.83403015136719</v>
+        <v>1385.275024414062</v>
       </c>
       <c r="E14" t="n">
-        <v>99.61345672607422</v>
+        <v>1782.114990234375</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>120.4741973876953</v>
+        <v>1932.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>BAJAJFINSV.NS</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42095</v>
+        <v>39753</v>
       </c>
       <c r="C15" t="n">
-        <v>312.3918762207031</v>
+        <v>21.02470779418945</v>
       </c>
       <c r="D15" t="n">
-        <v>48.90488433837891</v>
+        <v>8.66041088104248</v>
       </c>
       <c r="E15" t="n">
-        <v>49.50427627563477</v>
+        <v>16.94257545471191</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>312.3918762207031</v>
+        <v>8.66041088104248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>BAJAJFINSV.NS</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>41456</v>
+        <v>43952</v>
       </c>
       <c r="C16" t="n">
-        <v>33.63621139526367</v>
+        <v>671</v>
       </c>
       <c r="D16" t="n">
-        <v>19.38163185119629</v>
+        <v>398.5299987792969</v>
       </c>
       <c r="E16" t="n">
-        <v>21.57346343994141</v>
+        <v>620.5900268554688</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>19.38163185119629</v>
+        <v>398.5299987792969</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>ADANIPORTS.NS</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>39083</v>
+        <v>40391</v>
       </c>
       <c r="C17" t="n">
-        <v>843.7999877929688</v>
+        <v>185.25</v>
       </c>
       <c r="D17" t="n">
-        <v>601.25</v>
+        <v>145.3300018310547</v>
       </c>
       <c r="E17" t="n">
-        <v>606.9000244140625</v>
+        <v>151.8999938964844</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>843.7999877929688</v>
+        <v>185.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>ADANIPORTS.NS</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43101</v>
+        <v>43040</v>
       </c>
       <c r="C18" t="n">
-        <v>3468.35009765625</v>
+        <v>452.3500061035156</v>
       </c>
       <c r="D18" t="n">
-        <v>2732.050048828125</v>
+        <v>374.0499877929688</v>
       </c>
       <c r="E18" t="n">
-        <v>2744.699951171875</v>
+        <v>428.8500061035156</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3468.35009765625</v>
+        <v>452.3500061035156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>ADANIPORTS.NS</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>39722</v>
+        <v>41122</v>
       </c>
       <c r="C19" t="n">
-        <v>308.5</v>
+        <v>132.8999938964844</v>
       </c>
       <c r="D19" t="n">
-        <v>131</v>
+        <v>105.6500015258789</v>
       </c>
       <c r="E19" t="n">
-        <v>195.5500030517578</v>
+        <v>127.25</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>131</v>
+        <v>105.6500015258789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>ADANIPORTS.NS</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="C20" t="n">
-        <v>3315.14990234375</v>
+        <v>378.8999938964844</v>
       </c>
       <c r="D20" t="n">
-        <v>1788.650024414062</v>
+        <v>203</v>
       </c>
       <c r="E20" t="n">
-        <v>2022.349975585938</v>
+        <v>290.1000061035156</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1788.650024414062</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>39114</v>
+        <v>39083</v>
       </c>
       <c r="C21" t="n">
-        <v>3375.199951171875</v>
+        <v>843.7999877929688</v>
       </c>
       <c r="D21" t="n">
-        <v>2250</v>
+        <v>601.25</v>
       </c>
       <c r="E21" t="n">
-        <v>2447.449951171875</v>
+        <v>606.9000244140625</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>3375.199951171875</v>
+        <v>843.7999877929688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44409</v>
+        <v>43101</v>
       </c>
       <c r="C22" t="n">
-        <v>1932.5</v>
+        <v>3468.35009765625</v>
       </c>
       <c r="D22" t="n">
-        <v>1385.275024414062</v>
+        <v>2732.050048828125</v>
       </c>
       <c r="E22" t="n">
-        <v>1782.114990234375</v>
+        <v>2744.699951171875</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1932.5</v>
+        <v>3468.35009765625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>39753</v>
+        <v>39722</v>
       </c>
       <c r="C23" t="n">
-        <v>21.02470779418945</v>
+        <v>308.5</v>
       </c>
       <c r="D23" t="n">
-        <v>8.66041088104248</v>
+        <v>131</v>
       </c>
       <c r="E23" t="n">
-        <v>16.94257545471191</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>8.66041088104248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43952</v>
+        <v>43831</v>
       </c>
       <c r="C24" t="n">
-        <v>671</v>
+        <v>3315.14990234375</v>
       </c>
       <c r="D24" t="n">
-        <v>398.5299987792969</v>
+        <v>1788.650024414062</v>
       </c>
       <c r="E24" t="n">
-        <v>620.5900268554688</v>
+        <v>2022.349975585938</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>398.5299987792969</v>
+        <v>1788.650024414062</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C25" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>300.7999877929688</v>
+      </c>
+      <c r="E25" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>447.1000061035156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C26" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>238.1999969482422</v>
+      </c>
+      <c r="E26" t="n">
+        <v>287.9500122070312</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>238.1999969482422</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C27" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>109.5500030517578</v>
+      </c>
+      <c r="E27" t="n">
+        <v>114.1999969482422</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>109.5500030517578</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C28" t="n">
+        <v>438</v>
+      </c>
+      <c r="D28" t="n">
+        <v>245.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>395.9500122070312</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4547</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2910</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3534.300048828125</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C30" t="n">
+        <v>533.6343994140625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>372.6698913574219</v>
+      </c>
+      <c r="E30" t="n">
+        <v>449.0063781738281</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>533.6343994140625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C31" t="n">
+        <v>307.058349609375</v>
+      </c>
+      <c r="D31" t="n">
+        <v>194.4913177490234</v>
+      </c>
+      <c r="E31" t="n">
+        <v>285.7886657714844</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>194.4913177490234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C32" t="n">
+        <v>306.4274597167969</v>
+      </c>
+      <c r="D32" t="n">
+        <v>249.5130767822266</v>
+      </c>
+      <c r="E32" t="n">
+        <v>281.6428833007812</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>249.5130767822266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>38718</v>
+      </c>
+      <c r="C33" t="n">
+        <v>940</v>
+      </c>
+      <c r="D33" t="n">
+        <v>819.0999755859375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>890.4500122070312</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4091.949951171875</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3605</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3774.550048828125</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4091.949951171875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C35" t="n">
+        <v>785</v>
+      </c>
+      <c r="D35" t="n">
+        <v>550</v>
+      </c>
+      <c r="E35" t="n">
+        <v>694.5499877929688</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2531</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1596.449951171875</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C37" t="n">
+        <v>753.8673095703125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>484.5963439941406</v>
+      </c>
+      <c r="E37" t="n">
+        <v>517.9237670898438</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>753.8673095703125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C38" t="n">
+        <v>523.5697631835938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>422.8788757324219</v>
+      </c>
+      <c r="E38" t="n">
+        <v>464.2067260742188</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>523.5697631835938</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>348.772216796875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>307.6958312988281</v>
+      </c>
+      <c r="E39" t="n">
+        <v>337.3201904296875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>307.6958312988281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="C40" t="n">
+        <v>482.4874877929688</v>
+      </c>
+      <c r="D40" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>343.8624877929688</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>482.4874877929688</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5425.10009765625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4635</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4878.7998046875</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5425.10009765625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="C42" t="n">
+        <v>795</v>
+      </c>
+      <c r="D42" t="n">
+        <v>532.6500244140625</v>
+      </c>
+      <c r="E42" t="n">
+        <v>582.1500244140625</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>532.6500244140625</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C43" t="n">
+        <v>109.4749984741211</v>
+      </c>
+      <c r="D43" t="n">
+        <v>39.32500076293945</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52.46875</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>109.4749984741211</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="C44" t="n">
+        <v>250.25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>173.3249969482422</v>
+      </c>
+      <c r="E44" t="n">
+        <v>195.1000061035156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C45" t="n">
+        <v>993</v>
+      </c>
+      <c r="D45" t="n">
+        <v>839.5499877929688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>860.9500122070312</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.01249980926514</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.706250190734863</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C47" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="D47" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="E47" t="n">
+        <v>68.625</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C48" t="n">
+        <v>589.8499755859375</v>
+      </c>
+      <c r="D48" t="n">
+        <v>245.3999938964844</v>
+      </c>
+      <c r="E48" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>245.3999938964844</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>36342</v>
+      </c>
+      <c r="C49" t="n">
+        <v>126.4000015258789</v>
+      </c>
+      <c r="D49" t="n">
+        <v>71.66666412353516</v>
+      </c>
+      <c r="E49" t="n">
+        <v>103.125</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>126.4000015258789</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C50" t="n">
+        <v>196</v>
+      </c>
+      <c r="D50" t="n">
+        <v>113.0550003051758</v>
+      </c>
+      <c r="E50" t="n">
+        <v>119.8649978637695</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C51" t="n">
+        <v>67.98999786376953</v>
+      </c>
+      <c r="D51" t="n">
+        <v>46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>50.4900016784668</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C52" t="n">
+        <v>137</v>
+      </c>
+      <c r="D52" t="n">
+        <v>98.02500152587891</v>
+      </c>
+      <c r="E52" t="n">
+        <v>132.2449951171875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>98.02500152587891</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C53" t="n">
+        <v>227.7547149658203</v>
+      </c>
+      <c r="D53" t="n">
+        <v>125.6593399047852</v>
+      </c>
+      <c r="E53" t="n">
+        <v>159.0567169189453</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>227.7547149658203</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C54" t="n">
+        <v>252.8500061035156</v>
+      </c>
+      <c r="D54" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="E54" t="n">
+        <v>209.1499938964844</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>252.8500061035156</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C55" t="n">
+        <v>284</v>
+      </c>
+      <c r="D55" t="n">
+        <v>202.6000061035156</v>
+      </c>
+      <c r="E55" t="n">
+        <v>214.5500030517578</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C56" t="n">
+        <v>60.95000076293945</v>
+      </c>
+      <c r="D56" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="E56" t="n">
+        <v>52.04999923706055</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C57" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>58.79999923706055</v>
+      </c>
+      <c r="E57" t="n">
+        <v>87.94999694824219</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>58.79999923706055</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C58" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="D58" t="n">
+        <v>84.90000152587891</v>
+      </c>
+      <c r="E58" t="n">
+        <v>95.69999694824219</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>84.90000152587891</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>37165</v>
+      </c>
+      <c r="C59" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>461.875</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>939.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="C60" t="n">
+        <v>889</v>
+      </c>
+      <c r="D60" t="n">
+        <v>701.0999755859375</v>
+      </c>
+      <c r="E60" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4386.60009765625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2951</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3108.60009765625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4386.60009765625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C62" t="n">
+        <v>506</v>
+      </c>
+      <c r="D62" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>490.2000122070312</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>355.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2878</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1872.949951171875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2780.25</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1872.949951171875</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C64" t="n">
+        <v>146.0800018310547</v>
+      </c>
+      <c r="D64" t="n">
+        <v>94</v>
+      </c>
+      <c r="E64" t="n">
+        <v>107.9520034790039</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>146.0800018310547</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>38078</v>
+      </c>
+      <c r="C65" t="n">
+        <v>525.2000122070312</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.330400466918945</v>
+      </c>
+      <c r="E65" t="n">
+        <v>84.80000305175781</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>525.2000122070312</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C66" t="n">
+        <v>752.8499755859375</v>
+      </c>
+      <c r="D66" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>712.4500122070312</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>752.8499755859375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>37712</v>
+      </c>
+      <c r="C67" t="n">
+        <v>61.52000045776367</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.716800212860107</v>
+      </c>
+      <c r="E67" t="n">
+        <v>60.52799987792969</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.716800212860107</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C68" t="n">
+        <v>235</v>
+      </c>
+      <c r="D68" t="n">
+        <v>145</v>
+      </c>
+      <c r="E68" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C69" t="n">
+        <v>487.4500122070312</v>
+      </c>
+      <c r="D69" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="E69" t="n">
+        <v>422.8500061035156</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>355.2999877929688</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C70" t="n">
+        <v>187.5000457763672</v>
+      </c>
+      <c r="D70" t="n">
+        <v>149.0625305175781</v>
+      </c>
+      <c r="E70" t="n">
+        <v>184.2187957763672</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>187.5000457763672</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C71" t="n">
+        <v>254.1000671386719</v>
+      </c>
+      <c r="D71" t="n">
+        <v>201.8813018798828</v>
+      </c>
+      <c r="E71" t="n">
+        <v>235.8188018798828</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>254.1000671386719</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C72" t="n">
+        <v>739.8499755859375</v>
+      </c>
+      <c r="D72" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="E72" t="n">
+        <v>715.3499755859375</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>739.8499755859375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C73" t="n">
+        <v>81.99000549316406</v>
+      </c>
+      <c r="D73" t="n">
+        <v>40.59000015258789</v>
+      </c>
+      <c r="E73" t="n">
+        <v>52.5150032043457</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>40.59000015258789</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C74" t="n">
+        <v>187.9312896728516</v>
+      </c>
+      <c r="D74" t="n">
+        <v>153.0375366210938</v>
+      </c>
+      <c r="E74" t="n">
+        <v>177.9187927246094</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>153.0375366210938</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C75" t="n">
+        <v>258.3500061035156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="E75" t="n">
+        <v>196.6999969482422</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>159.3999938964844</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.895000457763672</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.454999923706055</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.247499942779541</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8.895000457763672</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>35977</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.095000028610229</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.615000009536743</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.795000076293945</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.615000009536743</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.262500047683716</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.472499966621399</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C79" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="D79" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>67.48332977294922</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>180.1999969482422</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C80" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="D80" t="n">
+        <v>467</v>
+      </c>
+      <c r="E80" t="n">
+        <v>517.7000122070312</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>551.5499877929688</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25.41666603088379</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.87916564941406</v>
+      </c>
+      <c r="E81" t="n">
+        <v>21.47916603088379</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.87916564941406</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="C82" t="n">
+        <v>62.47499847412109</v>
+      </c>
+      <c r="D82" t="n">
+        <v>34.33333206176758</v>
+      </c>
+      <c r="E82" t="n">
+        <v>60.04166412353516</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>34.33333206176758</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C83" t="n">
+        <v>383.7999877929688</v>
+      </c>
+      <c r="D83" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="E83" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>238.5500030517578</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C84" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="D84" t="n">
+        <v>26.77000045776367</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28.23999977111816</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>305.0499877929688</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3348</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2711.89990234375</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3121.330078125</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>36069</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.559999942779541</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.254999995231628</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.3799991607666</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13.55500030517578</v>
+      </c>
+      <c r="E87" t="n">
+        <v>23.4950008392334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>13.55500030517578</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1855.109985351562</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1245.010009765625</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1833.430053710938</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1245.010009765625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C89" t="n">
+        <v>775.6500244140625</v>
+      </c>
+      <c r="D89" t="n">
+        <v>656</v>
+      </c>
+      <c r="E89" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>775.6500244140625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C90" t="n">
+        <v>127.462532043457</v>
+      </c>
+      <c r="D90" t="n">
+        <v>115.3125305175781</v>
+      </c>
+      <c r="E90" t="n">
+        <v>118.6875305175781</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>127.462532043457</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C91" t="n">
+        <v>63.73126602172852</v>
+      </c>
+      <c r="D91" t="n">
+        <v>48.68438720703125</v>
+      </c>
+      <c r="E91" t="n">
+        <v>55.15313720703125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>48.68438720703125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C92" t="n">
+        <v>118.6875305175781</v>
+      </c>
+      <c r="D92" t="n">
+        <v>68.70938873291016</v>
+      </c>
+      <c r="E92" t="n">
+        <v>89.4937744140625</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>68.70938873291016</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C93" t="n">
+        <v>242.2916717529297</v>
+      </c>
+      <c r="D93" t="n">
+        <v>138.375</v>
+      </c>
+      <c r="E93" t="n">
+        <v>163.375</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>242.2916717529297</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C94" t="n">
+        <v>156.6666717529297</v>
+      </c>
+      <c r="D94" t="n">
+        <v>135.9166717529297</v>
+      </c>
+      <c r="E94" t="n">
+        <v>151.0416717529297</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>156.6666717529297</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C95" t="n">
+        <v>115</v>
+      </c>
+      <c r="D95" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="E95" t="n">
+        <v>110.6666641235352</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>89.25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C96" t="n">
+        <v>118.9000015258789</v>
+      </c>
+      <c r="D96" t="n">
+        <v>73.19999694824219</v>
+      </c>
+      <c r="E96" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>73.19999694824219</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="C97" t="n">
+        <v>109.2294387817383</v>
+      </c>
+      <c r="D97" t="n">
+        <v>83.95336151123047</v>
+      </c>
+      <c r="E97" t="n">
+        <v>85.82176208496094</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>109.2294387817383</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C98" t="n">
+        <v>191.2090148925781</v>
+      </c>
+      <c r="D98" t="n">
+        <v>124.607795715332</v>
+      </c>
+      <c r="E98" t="n">
+        <v>152.3175811767578</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>191.2090148925781</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C99" t="n">
+        <v>605.901123046875</v>
+      </c>
+      <c r="D99" t="n">
+        <v>484.0085144042969</v>
+      </c>
+      <c r="E99" t="n">
+        <v>544.3612060546875</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>605.901123046875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16.6526985168457</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11.02834033966064</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.95774936676025</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>11.02834033966064</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C101" t="n">
+        <v>70.96878814697266</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24.69511985778809</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31.63072776794434</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.69511985778809</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C102" t="n">
+        <v>201.6999969482422</v>
+      </c>
+      <c r="D102" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C103" t="n">
+        <v>748.7750244140625</v>
+      </c>
+      <c r="D103" t="n">
+        <v>565.0999755859375</v>
+      </c>
+      <c r="E103" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>748.7750244140625</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1406.25</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1479</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C105" t="n">
+        <v>446.8999938964844</v>
+      </c>
+      <c r="D105" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="E105" t="n">
+        <v>385.8500061035156</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>356.6499938964844</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1737.300048828125</v>
+      </c>
+      <c r="D106" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1701.400024414062</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1737.300048828125</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9996.400390625</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7690</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9729.5498046875</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9996.400390625</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C108" t="n">
+        <v>749</v>
+      </c>
+      <c r="D108" t="n">
+        <v>433</v>
+      </c>
+      <c r="E108" t="n">
+        <v>520.2000122070312</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6007.2001953125</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4001.10009765625</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5838.2998046875</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4001.10009765625</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="C110" t="n">
+        <v>347.2374877929688</v>
+      </c>
+      <c r="D110" t="n">
+        <v>262.7875061035156</v>
+      </c>
+      <c r="E110" t="n">
+        <v>319.4750061035156</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>347.2374877929688</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1419.849975585938</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1207.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1303.925048828125</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1419.849975585938</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="C112" t="n">
+        <v>218.6000061035156</v>
+      </c>
+      <c r="D112" t="n">
+        <v>103.8375015258789</v>
+      </c>
+      <c r="E112" t="n">
+        <v>134.375</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>103.8375015258789</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>40360</v>
+      </c>
+      <c r="C113" t="n">
+        <v>245.4333343505859</v>
+      </c>
+      <c r="D113" t="n">
+        <v>201.3333282470703</v>
+      </c>
+      <c r="E113" t="n">
+        <v>234.0166625976562</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>245.4333343505859</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C114" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="D114" t="n">
+        <v>209.0333404541016</v>
+      </c>
+      <c r="E114" t="n">
+        <v>283.2333374023438</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>314.5666809082031</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C115" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="D115" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="E115" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>212.8500061035156</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C116" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="D116" t="n">
+        <v>89.69166564941406</v>
+      </c>
+      <c r="E116" t="n">
+        <v>111.1833343505859</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>89.69166564941406</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C117" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D117" t="n">
+        <v>125.1666641235352</v>
+      </c>
+      <c r="E117" t="n">
+        <v>142.7333374023438</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>125.1666641235352</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C118" t="n">
+        <v>133.3999938964844</v>
+      </c>
+      <c r="D118" t="n">
+        <v>50</v>
+      </c>
+      <c r="E118" t="n">
+        <v>68.30000305175781</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C119" t="n">
+        <v>141.6666717529297</v>
+      </c>
+      <c r="D119" t="n">
+        <v>75.66666412353516</v>
+      </c>
+      <c r="E119" t="n">
+        <v>87.38333129882812</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>141.6666717529297</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C120" t="n">
+        <v>146.4666595458984</v>
+      </c>
+      <c r="D120" t="n">
+        <v>100.8333358764648</v>
+      </c>
+      <c r="E120" t="n">
+        <v>115.3000030517578</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>146.4666595458984</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C121" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="D121" t="n">
+        <v>581.2999877929688</v>
+      </c>
+      <c r="E121" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>864.7000122070312</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C122" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="E122" t="n">
+        <v>72.03333282470703</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>43.33333206176758</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C123" t="n">
+        <v>90</v>
+      </c>
+      <c r="D123" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="E123" t="n">
+        <v>86.80000305175781</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>67.69999694824219</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C124" t="n">
+        <v>614.9000244140625</v>
+      </c>
+      <c r="D124" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="E124" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>240.1499938964844</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="C125" t="n">
+        <v>438.75</v>
+      </c>
+      <c r="D125" t="n">
+        <v>93.16249847412109</v>
+      </c>
+      <c r="E125" t="n">
+        <v>109.4124984741211</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>438.75</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C126" t="n">
+        <v>529.2249755859375</v>
+      </c>
+      <c r="D126" t="n">
+        <v>417.5499877929688</v>
+      </c>
+      <c r="E126" t="n">
+        <v>440.2749938964844</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>529.2249755859375</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35.875</v>
+      </c>
+      <c r="D127" t="n">
+        <v>21.66250038146973</v>
+      </c>
+      <c r="E127" t="n">
+        <v>32.52500152587891</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21.66250038146973</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C128" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>375.25</v>
+      </c>
+      <c r="E128" t="n">
+        <v>543.5499877929688</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>375.25</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C129" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="D129" t="n">
+        <v>78.21500396728516</v>
+      </c>
+      <c r="E129" t="n">
+        <v>96.95500183105469</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>138.8699951171875</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C130" t="n">
+        <v>140</v>
+      </c>
+      <c r="D130" t="n">
+        <v>108.3600006103516</v>
+      </c>
+      <c r="E130" t="n">
+        <v>134.1950073242188</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C131" t="n">
+        <v>38.77000045776367</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.01000022888184</v>
+      </c>
+      <c r="E131" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>16.01000022888184</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C132" t="n">
+        <v>87.58999633789062</v>
+      </c>
+      <c r="D132" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="E132" t="n">
+        <v>86.14500427246094</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>46.20000076293945</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C133" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="D133" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>180.6499938964844</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C134" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="D134" t="n">
+        <v>31.63630676269531</v>
+      </c>
+      <c r="E134" t="n">
+        <v>44.94267272949219</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>654.9000244140625</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C135" t="n">
+        <v>55.24919509887695</v>
+      </c>
+      <c r="D135" t="n">
+        <v>36.82327270507812</v>
+      </c>
+      <c r="E135" t="n">
+        <v>50.34260559082031</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>55.24919509887695</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C136" t="n">
+        <v>75.55201721191406</v>
+      </c>
+      <c r="D136" t="n">
+        <v>55.34999847412109</v>
+      </c>
+      <c r="E136" t="n">
+        <v>57.10499954223633</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>75.55201721191406</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C137" t="n">
+        <v>42.57780075073242</v>
+      </c>
+      <c r="D137" t="n">
+        <v>13.10012817382812</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.69343948364258</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13.10012817382812</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.37324333190918</v>
+      </c>
+      <c r="D138" t="n">
+        <v>18.60694694519043</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25.87156295776367</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>18.60694694519043</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C139" t="n">
+        <v>50.59999847412109</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25.08499908447266</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.95999908447266</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>25.08499908447266</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1042.22216796875</v>
+      </c>
+      <c r="D140" t="n">
+        <v>618.066650390625</v>
+      </c>
+      <c r="E140" t="n">
+        <v>926.0888671875</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1042.22216796875</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C141" t="n">
+        <v>983.4222412109375</v>
+      </c>
+      <c r="D141" t="n">
+        <v>842.111083984375</v>
+      </c>
+      <c r="E141" t="n">
+        <v>879.6666870117188</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>983.4222412109375</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1262.533325195312</v>
+      </c>
+      <c r="D142" t="n">
+        <v>990.3666381835938</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1146.433349609375</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1262.533325195312</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1383.699951171875</v>
+      </c>
+      <c r="D143" t="n">
+        <v>661</v>
+      </c>
+      <c r="E143" t="n">
+        <v>808.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C144" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="E144" t="n">
+        <v>156.4750061035156</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>359.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1796.099975585938</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C146" t="n">
+        <v>102.7249984741211</v>
+      </c>
+      <c r="D146" t="n">
+        <v>52</v>
+      </c>
+      <c r="E146" t="n">
+        <v>70.55000305175781</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C147" t="n">
+        <v>217.6859436035156</v>
+      </c>
+      <c r="D147" t="n">
+        <v>87.5234375</v>
+      </c>
+      <c r="E147" t="n">
+        <v>140.1585998535156</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>217.6859436035156</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C148" t="n">
+        <v>398.6749877929688</v>
+      </c>
+      <c r="D148" t="n">
+        <v>153.125</v>
+      </c>
+      <c r="E148" t="n">
+        <v>192.4343719482422</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>398.6749877929688</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C149" t="n">
+        <v>437.375</v>
+      </c>
+      <c r="D149" t="n">
+        <v>363.0437622070312</v>
+      </c>
+      <c r="E149" t="n">
+        <v>405.1625061035156</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>437.375</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C150" t="n">
+        <v>183.375</v>
+      </c>
+      <c r="D150" t="n">
+        <v>130</v>
+      </c>
+      <c r="E150" t="n">
+        <v>139.4312438964844</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C151" t="n">
+        <v>327.5249938964844</v>
+      </c>
+      <c r="D151" t="n">
+        <v>257.5687561035156</v>
+      </c>
+      <c r="E151" t="n">
+        <v>289.8374938964844</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>257.5687561035156</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C152" t="n">
+        <v>514.625</v>
+      </c>
+      <c r="D152" t="n">
+        <v>430</v>
+      </c>
+      <c r="E152" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1174.349975585938</v>
+      </c>
+      <c r="D153" t="n">
+        <v>155.8461151123047</v>
+      </c>
+      <c r="E153" t="n">
+        <v>203.9192504882812</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1174.349975585938</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1294.851440429688</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1085.68310546875</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1161.133056640625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1294.851440429688</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C155" t="n">
+        <v>276.5574340820312</v>
+      </c>
+      <c r="D155" t="n">
+        <v>127.1457443237305</v>
+      </c>
+      <c r="E155" t="n">
+        <v>188.2266235351562</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>127.1457443237305</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C156" t="n">
+        <v>833.5855102539062</v>
+      </c>
+      <c r="D156" t="n">
+        <v>383.5250244140625</v>
+      </c>
+      <c r="E156" t="n">
+        <v>474.2144165039062</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>383.5250244140625</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C157" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="D157" t="n">
+        <v>230</v>
+      </c>
+      <c r="E157" t="n">
+        <v>294.2099914550781</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>321.7000122070312</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C158" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="D158" t="n">
+        <v>507</v>
+      </c>
+      <c r="E158" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>654.9000244140625</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C159" t="n">
+        <v>114</v>
+      </c>
+      <c r="D159" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="E159" t="n">
+        <v>111.4599990844727</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" t="n">
+        <v>55.65000152587891</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C160" t="n">
+        <v>252.3000030517578</v>
+      </c>
+      <c r="D160" t="n">
+        <v>152.6799926757812</v>
+      </c>
+      <c r="E160" t="n">
+        <v>244.5399932861328</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>152.6799926757812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C161" t="n">
+        <v>760.7000122070312</v>
+      </c>
+      <c r="D161" t="n">
+        <v>286</v>
+      </c>
+      <c r="E161" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C162" t="n">
+        <v>24.06657791137695</v>
+      </c>
+      <c r="D162" t="n">
+        <v>10.54219913482666</v>
+      </c>
+      <c r="E162" t="n">
+        <v>14.71298980712891</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>24.06657791137695</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1200.800048828125</v>
+      </c>
+      <c r="D163" t="n">
+        <v>807.25</v>
+      </c>
+      <c r="E163" t="n">
+        <v>874.5999755859375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1200.800048828125</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C164" t="n">
+        <v>462.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>312</v>
+      </c>
+      <c r="E164" t="n">
+        <v>352.2999877929688</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C165" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="D165" t="n">
+        <v>47.59999847412109</v>
+      </c>
+      <c r="E165" t="n">
+        <v>52.79499816894531</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>66.84999847412109</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>38718</v>
+      </c>
+      <c r="C166" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85.40000152587891</v>
+      </c>
+      <c r="E166" t="n">
+        <v>86.69000244140625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>107.8000030517578</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="C167" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>142.8999938964844</v>
+      </c>
+      <c r="E167" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C168" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.75500011444092</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.94499969482422</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.75500011444092</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C169" t="n">
+        <v>69.55000305175781</v>
+      </c>
+      <c r="D169" t="n">
+        <v>43.29999923706055</v>
+      </c>
+      <c r="E169" t="n">
+        <v>60.00500106811523</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
+        <v>43.29999923706055</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C170" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="D170" t="n">
+        <v>100</v>
+      </c>
+      <c r="E170" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C171" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="E171" t="n">
+        <v>25.71999931335449</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1304.849975585938</v>
+      </c>
+      <c r="D172" t="n">
+        <v>738.75</v>
+      </c>
+      <c r="E172" t="n">
+        <v>861.9000244140625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>738.75</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C173" t="n">
+        <v>25.35111045837402</v>
+      </c>
+      <c r="D173" t="n">
+        <v>19.35555458068848</v>
+      </c>
+      <c r="E173" t="n">
+        <v>24.36111068725586</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>25.35111045837402</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C174" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D174" t="n">
+        <v>256.7999877929688</v>
+      </c>
+      <c r="E174" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>354.7999877929688</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.38888835906982</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.44444370269775</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.96111106872559</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>12.44444370269775</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C176" t="n">
+        <v>224.1333312988281</v>
+      </c>
+      <c r="D176" t="n">
+        <v>178.6666717529297</v>
+      </c>
+      <c r="E176" t="n">
+        <v>218.8333282470703</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>178.6666717529297</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C177" t="n">
+        <v>243.8999938964844</v>
+      </c>
+      <c r="D177" t="n">
+        <v>134.6000061035156</v>
+      </c>
+      <c r="E177" t="n">
+        <v>171.6999969482422</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
+      <c r="G177" t="n">
+        <v>134.6000061035156</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C178" t="n">
+        <v>323.3999938964844</v>
+      </c>
+      <c r="D178" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>241.2400054931641</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>323.3999938964844</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C179" t="n">
+        <v>296</v>
+      </c>
+      <c r="D179" t="n">
+        <v>180</v>
+      </c>
+      <c r="E179" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2859.300048828125</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2701.800048828125</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2859.300048828125</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>38169</v>
+      </c>
+      <c r="C181" t="n">
+        <v>131.4499969482422</v>
+      </c>
+      <c r="D181" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
+      <c r="G181" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>40026</v>
+      </c>
+      <c r="C182" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="D182" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="E182" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>527.0499877929688</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="C183" t="n">
+        <v>527.0499877929688</v>
+      </c>
+      <c r="D183" t="n">
+        <v>240</v>
+      </c>
+      <c r="E183" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>527.0499877929688</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C184" t="n">
+        <v>750.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>652.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>657.260009765625</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>750.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>40210</v>
+      </c>
+      <c r="C185" t="n">
+        <v>324.3999938964844</v>
+      </c>
+      <c r="D185" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>276.3099975585938</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C186" t="n">
+        <v>42.70000076293945</v>
+      </c>
+      <c r="D186" t="n">
+        <v>17.64999961853027</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+      <c r="G186" t="n">
+        <v>17.64999961853027</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C187" t="n">
+        <v>309.2250061035156</v>
+      </c>
+      <c r="D187" t="n">
+        <v>183</v>
+      </c>
+      <c r="E187" t="n">
+        <v>271.75</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>INDIGO.NS</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D188" t="n">
+        <v>691</v>
+      </c>
+      <c r="E188" t="n">
+        <v>888.9000244140625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+      <c r="G188" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>40330</v>
+      </c>
+      <c r="C189" t="n">
+        <v>796.0999755859375</v>
+      </c>
+      <c r="D189" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="E189" t="n">
+        <v>684.25</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>796.0999755859375</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C190" t="n">
+        <v>294.2999877929688</v>
+      </c>
+      <c r="D190" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="E190" t="n">
+        <v>254.3999938964844</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>294.2999877929688</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C191" t="n">
+        <v>98.15000152587891</v>
+      </c>
+      <c r="D191" t="n">
+        <v>48.09999847412109</v>
+      </c>
+      <c r="E191" t="n">
+        <v>53.40000152587891</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="n">
+        <v>48.09999847412109</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>JINDALSTEL.NS</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C192" t="n">
+        <v>163.9499969482422</v>
+      </c>
+      <c r="D192" t="n">
+        <v>62</v>
+      </c>
+      <c r="E192" t="n">
+        <v>121.5500030517578</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C193" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="D193" t="n">
+        <v>137</v>
+      </c>
+      <c r="E193" t="n">
+        <v>147.0500030517578</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>160.8000030517578</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C194" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>230.75</v>
+      </c>
+      <c r="E194" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C195" t="n">
+        <v>83</v>
+      </c>
+      <c r="D195" t="n">
+        <v>43</v>
+      </c>
+      <c r="E195" t="n">
+        <v>70.05000305175781</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C196" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="D196" t="n">
+        <v>136.5500030517578</v>
+      </c>
+      <c r="E196" t="n">
+        <v>155.6999969482422</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" t="n">
+        <v>136.5500030517578</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C197" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="E197" t="n">
+        <v>48.92499923706055</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C198" t="n">
+        <v>43.92499923706055</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27.57500076293945</v>
+      </c>
+      <c r="E198" t="n">
+        <v>34.27500152587891</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" t="n">
+        <v>27.57500076293945</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C199" t="n">
+        <v>437.989990234375</v>
+      </c>
+      <c r="D199" t="n">
+        <v>320</v>
+      </c>
+      <c r="E199" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>437.989990234375</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C200" t="n">
+        <v>816.4000244140625</v>
+      </c>
+      <c r="D200" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="E200" t="n">
+        <v>731.4600219726562</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>816.4000244140625</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C201" t="n">
+        <v>801.030029296875</v>
+      </c>
+      <c r="D201" t="n">
+        <v>592</v>
+      </c>
+      <c r="E201" t="n">
+        <v>625.9299926757812</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>801.030029296875</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C202" t="n">
+        <v>153.9600067138672</v>
+      </c>
+      <c r="D202" t="n">
+        <v>95.54000091552734</v>
+      </c>
+      <c r="E202" t="n">
+        <v>121.2099990844727</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+      <c r="G202" t="n">
+        <v>95.54000091552734</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C203" t="n">
+        <v>520</v>
+      </c>
+      <c r="D203" t="n">
+        <v>354.6900024414062</v>
+      </c>
+      <c r="E203" t="n">
+        <v>388.5599975585938</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="n">
+        <v>354.6900024414062</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C204" t="n">
+        <v>727.4583129882812</v>
+      </c>
+      <c r="D204" t="n">
+        <v>646.0833129882812</v>
+      </c>
+      <c r="E204" t="n">
+        <v>674.1666870117188</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>727.4583129882812</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.05654716491699</v>
+      </c>
+      <c r="D205" t="n">
+        <v>7.157738208770752</v>
+      </c>
+      <c r="E205" t="n">
+        <v>10.1488094329834</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>7.157738208770752</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1690.050048828125</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C207" t="n">
+        <v>46.90000152587891</v>
+      </c>
+      <c r="D207" t="n">
+        <v>26.14999961853027</v>
+      </c>
+      <c r="E207" t="n">
+        <v>32.09999847412109</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="n">
+        <v>26.14999961853027</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D208" t="n">
+        <v>235.5500030517578</v>
+      </c>
+      <c r="E208" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+      <c r="G208" t="n">
+        <v>235.5500030517578</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C209" t="n">
+        <v>98.73372650146484</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.958624839782715</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70.37403106689453</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>98.73372650146484</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="C210" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="D210" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="E210" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>197.3600006103516</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C211" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>417.0499877929688</v>
+      </c>
+      <c r="E211" t="n">
+        <v>525.1500244140625</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>558.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C212" t="n">
+        <v>65.52666473388672</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.9943810105323792</v>
+      </c>
+      <c r="E212" t="n">
+        <v>15.2363862991333</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.9943810105323792</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C213" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="D213" t="n">
+        <v>202</v>
+      </c>
+      <c r="E213" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C214" t="n">
+        <v>264.6363525390625</v>
+      </c>
+      <c r="D214" t="n">
+        <v>130.9181823730469</v>
+      </c>
+      <c r="E214" t="n">
+        <v>139.8909149169922</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>264.6363525390625</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C215" t="n">
+        <v>232.5454559326172</v>
+      </c>
+      <c r="D215" t="n">
+        <v>189.2909088134766</v>
+      </c>
+      <c r="E215" t="n">
+        <v>208.1999969482422</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>232.5454559326172</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C216" t="n">
+        <v>357.6363525390625</v>
+      </c>
+      <c r="D216" t="n">
+        <v>275.0909118652344</v>
+      </c>
+      <c r="E216" t="n">
+        <v>286.8181762695312</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>357.6363525390625</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C217" t="n">
+        <v>97.92726898193359</v>
+      </c>
+      <c r="D217" t="n">
+        <v>45.87272644042969</v>
+      </c>
+      <c r="E217" t="n">
+        <v>60.50909042358398</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+      <c r="G217" t="n">
+        <v>45.87272644042969</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C218" t="n">
+        <v>875.8947143554688</v>
+      </c>
+      <c r="D218" t="n">
+        <v>667.529296875</v>
+      </c>
+      <c r="E218" t="n">
+        <v>761.0184936523438</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>875.8947143554688</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1625.95166015625</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1239.718139648438</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1266.123046875</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1625.95166015625</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1331.940673828125</v>
+      </c>
+      <c r="D220" t="n">
+        <v>428.7153625488281</v>
+      </c>
+      <c r="E220" t="n">
+        <v>643.7063598632812</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+      <c r="G220" t="n">
+        <v>428.7153625488281</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C221" t="n">
+        <v>210.3800048828125</v>
+      </c>
+      <c r="D221" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="E221" t="n">
+        <v>179.3399963378906</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>210.3800048828125</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C222" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="D222" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="E222" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>228.8999938964844</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C223" t="n">
+        <v>59.68999862670898</v>
+      </c>
+      <c r="D223" t="n">
+        <v>34.06999969482422</v>
+      </c>
+      <c r="E223" t="n">
+        <v>46.86999893188477</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2</v>
+      </c>
+      <c r="G223" t="n">
+        <v>34.06999969482422</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C224" t="n">
+        <v>124.6900024414062</v>
+      </c>
+      <c r="D224" t="n">
+        <v>85.98999786376953</v>
+      </c>
+      <c r="E224" t="n">
+        <v>98.70999908447266</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2</v>
+      </c>
+      <c r="G224" t="n">
+        <v>85.98999786376953</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C225" t="n">
+        <v>54.79999923706055</v>
+      </c>
+      <c r="D225" t="n">
+        <v>36</v>
+      </c>
+      <c r="E225" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+      <c r="G225" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C226" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="D226" t="n">
+        <v>25.33449554443359</v>
+      </c>
+      <c r="E226" t="n">
+        <v>33.56499862670898</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>39.29999923706055</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C227" t="n">
+        <v>127.6500015258789</v>
+      </c>
+      <c r="D227" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="E227" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>127.6500015258789</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.9937340021133423</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7207440137863159</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.8750979900360107</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.7207440137863159</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C229" t="n">
+        <v>42.43999862670898</v>
+      </c>
+      <c r="D229" t="n">
+        <v>22.31500053405762</v>
+      </c>
+      <c r="E229" t="n">
+        <v>28.45999908447266</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
+      <c r="G229" t="n">
+        <v>22.31500053405762</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C230" t="n">
+        <v>96.94999694824219</v>
+      </c>
+      <c r="D230" t="n">
+        <v>35.70000076293945</v>
+      </c>
+      <c r="E230" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2</v>
+      </c>
+      <c r="G230" t="n">
+        <v>35.70000076293945</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C231" t="n">
+        <v>279.9800109863281</v>
+      </c>
+      <c r="D231" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="E231" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>279.9800109863281</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="C232" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="D232" t="n">
+        <v>173.2799987792969</v>
+      </c>
+      <c r="E232" t="n">
+        <v>219.1000061035156</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>230.9499969482422</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C233" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="D233" t="n">
+        <v>128.1999969482422</v>
+      </c>
+      <c r="E233" t="n">
+        <v>171.3999938964844</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>231.4499969482422</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C234" t="n">
+        <v>109.5400009155273</v>
+      </c>
+      <c r="D234" t="n">
+        <v>57.20000076293945</v>
+      </c>
+      <c r="E234" t="n">
+        <v>82.29000091552734</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2</v>
+      </c>
+      <c r="G234" t="n">
+        <v>57.20000076293945</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C235" t="n">
+        <v>38.40000152587891</v>
+      </c>
+      <c r="D235" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="E235" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2</v>
+      </c>
+      <c r="G235" t="n">
+        <v>26.29999923706055</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C236" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="D236" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="E236" t="n">
+        <v>33.04999923706055</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2</v>
+      </c>
+      <c r="G236" t="n">
+        <v>26.29999923706055</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>38504</v>
+      </c>
+      <c r="C237" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="D237" t="n">
+        <v>38.40040969848633</v>
+      </c>
+      <c r="E237" t="n">
+        <v>43.66247177124023</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>239.3999938964844</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="C238" t="n">
+        <v>164.2230377197266</v>
+      </c>
+      <c r="D238" t="n">
+        <v>99.21078491210938</v>
+      </c>
+      <c r="E238" t="n">
+        <v>144.2447052001953</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>164.2230377197266</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C239" t="n">
+        <v>92.73999786376953</v>
+      </c>
+      <c r="D239" t="n">
+        <v>59.61999893188477</v>
+      </c>
+      <c r="E239" t="n">
+        <v>74.56999969482422</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>92.73999786376953</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="C240" t="n">
+        <v>47.27102279663086</v>
+      </c>
+      <c r="D240" t="n">
+        <v>26.54374885559082</v>
+      </c>
+      <c r="E240" t="n">
+        <v>32.91463851928711</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2</v>
+      </c>
+      <c r="G240" t="n">
+        <v>26.54374885559082</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C241" t="n">
+        <v>53.3209342956543</v>
+      </c>
+      <c r="D241" t="n">
+        <v>30.34682846069336</v>
+      </c>
+      <c r="E241" t="n">
+        <v>30.82342910766602</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2</v>
+      </c>
+      <c r="G241" t="n">
+        <v>30.34682846069336</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C242" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="D242" t="n">
+        <v>14.72999954223633</v>
+      </c>
+      <c r="E242" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2</v>
+      </c>
+      <c r="G242" t="n">
+        <v>14.72999954223633</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C243" t="n">
+        <v>250.9666595458984</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6.79444408416748</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8.604040145874023</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>250.9666595458984</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="C244" t="n">
+        <v>22.74646377563477</v>
+      </c>
+      <c r="D244" t="n">
+        <v>18.98282814025879</v>
+      </c>
+      <c r="E244" t="n">
+        <v>22.24696922302246</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>22.74646377563477</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C245" t="n">
+        <v>64.46666717529297</v>
+      </c>
+      <c r="D245" t="n">
+        <v>53.41666412353516</v>
+      </c>
+      <c r="E245" t="n">
+        <v>60.71666717529297</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>64.46666717529297</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C246" t="n">
+        <v>9.444443702697754</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5.505050182342529</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.569695949554443</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>5.505050182342529</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.05151462554932</v>
+      </c>
+      <c r="D247" t="n">
+        <v>9.020201683044434</v>
+      </c>
+      <c r="E247" t="n">
+        <v>11.59545421600342</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2</v>
+      </c>
+      <c r="G247" t="n">
+        <v>9.020201683044434</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C248" t="n">
+        <v>36.33333206176758</v>
+      </c>
+      <c r="D248" t="n">
+        <v>18.66666603088379</v>
+      </c>
+      <c r="E248" t="n">
+        <v>24.81666564941406</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2</v>
+      </c>
+      <c r="G248" t="n">
+        <v>18.66666603088379</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C249" t="n">
+        <v>139.1000061035156</v>
+      </c>
+      <c r="D249" t="n">
+        <v>27</v>
+      </c>
+      <c r="E249" t="n">
+        <v>27.97999954223633</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>139.1000061035156</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C250" t="n">
+        <v>9.529999732971191</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.199999809265137</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5.110000133514404</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4.199999809265137</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C251" t="n">
+        <v>216.4499969482422</v>
+      </c>
+      <c r="D251" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="E251" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" t="n">
+        <v>117.4000015258789</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C252" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="E252" t="n">
+        <v>281.1900024414062</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C253" t="n">
+        <v>336</v>
+      </c>
+      <c r="D253" t="n">
+        <v>255.1999969482422</v>
+      </c>
+      <c r="E253" t="n">
+        <v>267.0499877929688</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C254" t="n">
+        <v>21.97459983825684</v>
+      </c>
+      <c r="D254" t="n">
+        <v>13.21400928497314</v>
+      </c>
+      <c r="E254" t="n">
+        <v>15.56337642669678</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="n">
+        <v>13.21400928497314</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C255" t="n">
+        <v>202.8999938964844</v>
+      </c>
+      <c r="D255" t="n">
+        <v>145.2700042724609</v>
+      </c>
+      <c r="E255" t="n">
+        <v>161.4900054931641</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
+      </c>
+      <c r="G255" t="n">
+        <v>145.2700042724609</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C256" t="n">
+        <v>198</v>
+      </c>
+      <c r="D256" t="n">
+        <v>149.4499969482422</v>
+      </c>
+      <c r="E256" t="n">
+        <v>178.4499969482422</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="n">
+        <v>149.4499969482422</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>36192</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5.952537059783936</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3.5606849193573</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.642436981201172</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5.952537059783936</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C258" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="D258" t="n">
+        <v>511</v>
+      </c>
+      <c r="E258" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>607.7000122070312</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C259" t="n">
+        <v>321</v>
+      </c>
+      <c r="D259" t="n">
+        <v>234</v>
+      </c>
+      <c r="E259" t="n">
+        <v>287</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+      <c r="G259" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C260" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="D260" t="n">
+        <v>26.00001335144043</v>
+      </c>
+      <c r="E260" t="n">
+        <v>32.93751525878906</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>151.6000061035156</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C261" t="n">
+        <v>100.8281784057617</v>
+      </c>
+      <c r="D261" t="n">
+        <v>79.68753814697266</v>
+      </c>
+      <c r="E261" t="n">
+        <v>87.00004577636719</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>100.8281784057617</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C262" t="n">
+        <v>133.1333312988281</v>
+      </c>
+      <c r="D262" t="n">
+        <v>110.8833312988281</v>
+      </c>
+      <c r="E262" t="n">
+        <v>126.3333358764648</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>133.1333312988281</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="C263" t="n">
+        <v>8.500003814697266</v>
+      </c>
+      <c r="D263" t="n">
+        <v>5.375001907348633</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6.325003147125244</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+      <c r="G263" t="n">
+        <v>5.375001907348633</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C264" t="n">
+        <v>75.22503662109375</v>
+      </c>
+      <c r="D264" t="n">
+        <v>48.7593994140625</v>
+      </c>
+      <c r="E264" t="n">
+        <v>56.68127822875977</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2</v>
+      </c>
+      <c r="G264" t="n">
+        <v>48.7593994140625</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C265" t="n">
+        <v>88.90000152587891</v>
+      </c>
+      <c r="D265" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="E265" t="n">
+        <v>51.03333282470703</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2</v>
+      </c>
+      <c r="G265" t="n">
+        <v>43.33333206176758</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C266" t="n">
+        <v>5900</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3875.10009765625</v>
+      </c>
+      <c r="E266" t="n">
+        <v>4710.89990234375</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C267" t="n">
+        <v>15.80246925354004</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2.554519891738892</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.094208002090454</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>15.80246925354004</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C268" t="n">
+        <v>108.0845565795898</v>
+      </c>
+      <c r="D268" t="n">
+        <v>91.19976043701172</v>
+      </c>
+      <c r="E268" t="n">
+        <v>103.6174621582031</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="n">
+        <v>108.0845565795898</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4.803217887878418</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2.131764888763428</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.281299114227295</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2.131764888763428</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C270" t="n">
+        <v>61.88359832763672</v>
+      </c>
+      <c r="D270" t="n">
+        <v>19.9379940032959</v>
+      </c>
+      <c r="E270" t="n">
+        <v>25.01982688903809</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
+      </c>
+      <c r="G270" t="n">
+        <v>19.9379940032959</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C271" t="n">
+        <v>724.2999877929688</v>
+      </c>
+      <c r="D271" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="E271" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="n">
+        <v>724.2999877929688</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C272" t="n">
+        <v>484.5499877929688</v>
+      </c>
+      <c r="D272" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="E272" t="n">
+        <v>393.1000061035156</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2</v>
+      </c>
+      <c r="G272" t="n">
+        <v>226.1000061035156</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C273" t="n">
+        <v>658.9500122070312</v>
+      </c>
+      <c r="D273" t="n">
+        <v>569.9000244140625</v>
+      </c>
+      <c r="E273" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1</v>
+      </c>
+      <c r="G273" t="n">
+        <v>658.9500122070312</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C274" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="D274" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="E274" t="n">
+        <v>201.25</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" t="n">
+        <v>273.8500061035156</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C275" t="n">
+        <v>122.75</v>
+      </c>
+      <c r="D275" t="n">
+        <v>72.34999847412109</v>
+      </c>
+      <c r="E275" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2</v>
+      </c>
+      <c r="G275" t="n">
+        <v>72.34999847412109</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C276" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="D276" t="n">
+        <v>114.5500030517578</v>
+      </c>
+      <c r="E276" t="n">
+        <v>137.4499969482422</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2</v>
+      </c>
+      <c r="G276" t="n">
+        <v>114.5500030517578</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C277" t="n">
+        <v>32048</v>
+      </c>
+      <c r="D277" t="n">
+        <v>26510</v>
+      </c>
+      <c r="E277" t="n">
+        <v>27504.599609375</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" t="n">
+        <v>32048</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C278" t="n">
+        <v>590</v>
+      </c>
+      <c r="D278" t="n">
+        <v>320</v>
+      </c>
+      <c r="E278" t="n">
+        <v>460.1000061035156</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2</v>
+      </c>
+      <c r="G278" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C279" t="n">
+        <v>66.48666381835938</v>
+      </c>
+      <c r="D279" t="n">
+        <v>41.66666412353516</v>
+      </c>
+      <c r="E279" t="n">
+        <v>53.86999893188477</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>66.48666381835938</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C280" t="n">
+        <v>978.6666870117188</v>
+      </c>
+      <c r="D280" t="n">
+        <v>738.75</v>
+      </c>
+      <c r="E280" t="n">
+        <v>768.6500244140625</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>978.6666870117188</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C281" t="n">
+        <v>772</v>
+      </c>
+      <c r="D281" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="E281" t="n">
+        <v>520.8499755859375</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+      <c r="G281" t="n">
+        <v>425.1000061035156</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="C282" t="n">
+        <v>495</v>
+      </c>
+      <c r="D282" t="n">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="E282" t="n">
+        <v>352.6499938964844</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C283" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D283" t="n">
+        <v>178</v>
+      </c>
+      <c r="E283" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>318.2999877929688</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C284" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="D284" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E284" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>355.7000122070312</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>36800</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2.467499971389771</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.9275000095367432</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1.846250057220459</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.9275000095367432</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C286" t="n">
+        <v>98.19999694824219</v>
+      </c>
+      <c r="D286" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="E286" t="n">
+        <v>89.84999847412109</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2</v>
+      </c>
+      <c r="G286" t="n">
+        <v>58.15000152587891</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C287" t="n">
+        <v>166.1000061035156</v>
+      </c>
+      <c r="D287" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="E287" t="n">
+        <v>64.69999694824219</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2</v>
+      </c>
+      <c r="G287" t="n">
+        <v>60.20000076293945</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="C288" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="D288" t="n">
+        <v>55.84999847412109</v>
+      </c>
+      <c r="E288" t="n">
+        <v>80.375</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>93.25</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="C289" t="n">
+        <v>87.40000152587891</v>
+      </c>
+      <c r="D289" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="E289" t="n">
+        <v>54.45000076293945</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>87.40000152587891</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C290" t="n">
+        <v>794.4500122070312</v>
+      </c>
+      <c r="D290" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="E290" t="n">
+        <v>696.7999877929688</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>794.4500122070312</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C291" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7.474999904632568</v>
+      </c>
+      <c r="E291" t="n">
+        <v>8.324999809265137</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
+      </c>
+      <c r="G291" t="n">
+        <v>7.474999904632568</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C292" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="D292" t="n">
+        <v>28.10000038146973</v>
+      </c>
+      <c r="E292" t="n">
+        <v>31.14999961853027</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2</v>
+      </c>
+      <c r="G292" t="n">
+        <v>28.10000038146973</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C293" t="n">
+        <v>483</v>
+      </c>
+      <c r="D293" t="n">
+        <v>240.1000061035156</v>
+      </c>
+      <c r="E293" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2</v>
+      </c>
+      <c r="G293" t="n">
+        <v>240.1000061035156</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3375.199951171875</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2250</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2447.449951171875</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>3375.199951171875</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C295" t="n">
+        <v>432.6499938964844</v>
+      </c>
+      <c r="D295" t="n">
+        <v>209</v>
+      </c>
+      <c r="E295" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2</v>
+      </c>
+      <c r="G295" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>BAJAJHLDNG.NS</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3950</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1460.150024414062</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2037.800048828125</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1460.150024414062</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C297" t="n">
+        <v>159.2085266113281</v>
+      </c>
+      <c r="D297" t="n">
+        <v>98.52825164794922</v>
+      </c>
+      <c r="E297" t="n">
+        <v>113.0517578125</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>159.2085266113281</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C298" t="n">
+        <v>101.8000030517578</v>
+      </c>
+      <c r="D298" t="n">
+        <v>77</v>
+      </c>
+      <c r="E298" t="n">
+        <v>79</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>101.8000030517578</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>36617</v>
+      </c>
+      <c r="C299" t="n">
+        <v>9.399267196655273</v>
+      </c>
+      <c r="D299" t="n">
+        <v>4.270199775695801</v>
+      </c>
+      <c r="E299" t="n">
+        <v>7.811812877655029</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2</v>
+      </c>
+      <c r="G299" t="n">
+        <v>4.270199775695801</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C300" t="n">
+        <v>70.69999694824219</v>
+      </c>
+      <c r="D300" t="n">
+        <v>55</v>
+      </c>
+      <c r="E300" t="n">
+        <v>64.65000152587891</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2</v>
+      </c>
+      <c r="G300" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C301" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="D301" t="n">
+        <v>27</v>
+      </c>
+      <c r="E301" t="n">
+        <v>44.84999847412109</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2</v>
+      </c>
+      <c r="G301" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1182.400024414062</v>
+      </c>
+      <c r="D302" t="n">
+        <v>886.5999755859375</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1182.400024414062</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="C303" t="n">
+        <v>843</v>
+      </c>
+      <c r="D303" t="n">
+        <v>640</v>
+      </c>
+      <c r="E303" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2</v>
+      </c>
+      <c r="G303" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D304" t="n">
+        <v>645</v>
+      </c>
+      <c r="E304" t="n">
+        <v>945.1500244140625</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="C305" t="n">
+        <v>950</v>
+      </c>
+      <c r="D305" t="n">
+        <v>812.4000244140625</v>
+      </c>
+      <c r="E305" t="n">
+        <v>837.75</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1559.699951171875</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1105.650024414062</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1325.949951171875</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1559.699951171875</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C307" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="D307" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="E307" t="n">
+        <v>268.1000061035156</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2</v>
+      </c>
+      <c r="G307" t="n">
+        <v>186.3500061035156</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C308" t="n">
+        <v>591.0999755859375</v>
+      </c>
+      <c r="D308" t="n">
+        <v>414</v>
+      </c>
+      <c r="E308" t="n">
+        <v>477.6000061035156</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+      <c r="G308" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D309" t="n">
+        <v>850.25</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1046.900024414062</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2</v>
+      </c>
+      <c r="G309" t="n">
+        <v>850.25</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C310" t="n">
+        <v>202.125</v>
+      </c>
+      <c r="D310" t="n">
+        <v>32.07500076293945</v>
+      </c>
+      <c r="E310" t="n">
+        <v>37.65833282470703</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1</v>
+      </c>
+      <c r="G310" t="n">
+        <v>202.125</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>40360</v>
+      </c>
+      <c r="C311" t="n">
+        <v>76.15000152587891</v>
+      </c>
+      <c r="D311" t="n">
+        <v>58.71666717529297</v>
+      </c>
+      <c r="E311" t="n">
+        <v>69.46666717529297</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
+      <c r="G311" t="n">
+        <v>76.15000152587891</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C312" t="n">
+        <v>154.3166656494141</v>
+      </c>
+      <c r="D312" t="n">
+        <v>121.3666687011719</v>
+      </c>
+      <c r="E312" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>154.3166656494141</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C313" t="n">
+        <v>38.33333206176758</v>
+      </c>
+      <c r="D313" t="n">
+        <v>25</v>
+      </c>
+      <c r="E313" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
+      </c>
+      <c r="G313" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C314" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="D314" t="n">
+        <v>31</v>
+      </c>
+      <c r="E314" t="n">
+        <v>34.64166641235352</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G314" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C315" t="n">
+        <v>64.26666259765625</v>
+      </c>
+      <c r="D315" t="n">
+        <v>47.43333435058594</v>
+      </c>
+      <c r="E315" t="n">
+        <v>56.90000152587891</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+      <c r="G315" t="n">
+        <v>47.43333435058594</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>COCHINSHIP.NS</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C316" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="D316" t="n">
+        <v>104.5500030517578</v>
+      </c>
+      <c r="E316" t="n">
+        <v>123.875</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2</v>
+      </c>
+      <c r="G316" t="n">
+        <v>104.5500030517578</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C317" t="n">
+        <v>7465.39990234375</v>
+      </c>
+      <c r="D317" t="n">
+        <v>5182.0498046875</v>
+      </c>
+      <c r="E317" t="n">
+        <v>6075.35009765625</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1</v>
+      </c>
+      <c r="G317" t="n">
+        <v>7465.39990234375</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1632.693115234375</v>
+      </c>
+      <c r="D318" t="n">
+        <v>906.9508666992188</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1071.227905273438</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1632.693115234375</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1588.026489257812</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1150.48388671875</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1175.359252929688</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1588.026489257812</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C320" t="n">
+        <v>569.9536743164062</v>
+      </c>
+      <c r="D320" t="n">
+        <v>390.3792419433594</v>
+      </c>
+      <c r="E320" t="n">
+        <v>492.4679565429688</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2</v>
+      </c>
+      <c r="G320" t="n">
+        <v>390.3792419433594</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D321" t="n">
+        <v>722</v>
+      </c>
+      <c r="E321" t="n">
+        <v>941.1500244140625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2</v>
+      </c>
+      <c r="G321" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C322" t="n">
+        <v>5890</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3950</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5144.7998046875</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
+      <c r="G322" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C323" t="n">
+        <v>27990</v>
+      </c>
+      <c r="D323" t="n">
+        <v>18900</v>
+      </c>
+      <c r="E323" t="n">
+        <v>25421.349609375</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1</v>
+      </c>
+      <c r="G323" t="n">
+        <v>27990</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C324" t="n">
+        <v>15550</v>
+      </c>
+      <c r="D324" t="n">
+        <v>7850</v>
+      </c>
+      <c r="E324" t="n">
+        <v>9395.5498046875</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2</v>
+      </c>
+      <c r="G324" t="n">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C325" t="n">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="D325" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="E325" t="n">
+        <v>69.80999755859375</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1</v>
+      </c>
+      <c r="G325" t="n">
+        <v>74.66999816894531</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C326" t="n">
+        <v>16</v>
+      </c>
+      <c r="D326" t="n">
+        <v>10</v>
+      </c>
+      <c r="E326" t="n">
+        <v>14.4350004196167</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2</v>
+      </c>
+      <c r="G326" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C327" t="n">
+        <v>593.4000244140625</v>
+      </c>
+      <c r="D327" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="E327" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2</v>
+      </c>
+      <c r="G327" t="n">
+        <v>447.0499877929688</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C328" t="n">
+        <v>558.8966064453125</v>
+      </c>
+      <c r="D328" t="n">
+        <v>51.45672607421875</v>
+      </c>
+      <c r="E328" t="n">
+        <v>70.23878479003906</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1</v>
+      </c>
+      <c r="G328" t="n">
+        <v>558.8966064453125</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="C329" t="n">
+        <v>42.52684783935547</v>
+      </c>
+      <c r="D329" t="n">
+        <v>19.9326171875</v>
+      </c>
+      <c r="E329" t="n">
+        <v>27.30258941650391</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2</v>
+      </c>
+      <c r="G329" t="n">
+        <v>19.9326171875</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="C330" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="D330" t="n">
+        <v>34.2599983215332</v>
+      </c>
+      <c r="E330" t="n">
+        <v>63.52999877929688</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1</v>
+      </c>
+      <c r="G330" t="n">
+        <v>271.1499938964844</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C331" t="n">
+        <v>88.80000305175781</v>
+      </c>
+      <c r="D331" t="n">
+        <v>56.29999923706055</v>
+      </c>
+      <c r="E331" t="n">
+        <v>70.69999694824219</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1</v>
+      </c>
+      <c r="G331" t="n">
+        <v>88.80000305175781</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C332" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="D332" t="n">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="E332" t="n">
+        <v>14.85999965667725</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2</v>
+      </c>
+      <c r="G332" t="n">
+        <v>12.44999980926514</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C333" t="n">
+        <v>34.20000076293945</v>
+      </c>
+      <c r="D333" t="n">
+        <v>25.20999908447266</v>
+      </c>
+      <c r="E333" t="n">
+        <v>33.07000350952148</v>
+      </c>
+      <c r="F333" t="n">
+        <v>2</v>
+      </c>
+      <c r="G333" t="n">
+        <v>25.20999908447266</v>
       </c>
     </row>
   </sheetData>

--- a/excel/3mo/ph_pl_data_3mo_backup.xlsx
+++ b/excel/3mo/ph_pl_data_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1984"/>
+  <dimension ref="A1:G1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50049,6 +50049,156 @@
         <v>1589.5</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1985" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>21108.640625</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>18954.8203125</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>20509.08984375</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>21108.640625</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1986" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>30024.740234375</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>26776.119140625</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>27957.490234375</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>30024.740234375</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1987" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>62245.4296875</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>55132.6796875</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>58253.8203125</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>62245.4296875</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1988" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C1988" t="n">
+        <v>26116.51953125</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>22494.609375</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>25341.859375</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>22494.609375</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1989" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C1989" t="n">
+        <v>42273.87109375</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>25638.900390625</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>29468.490234375</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>25638.900390625</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B1990" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C1990" t="n">
+        <v>60845.1015625</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>50921.21875</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>53018.94140625</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>50921.21875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/ph_pl_data_3mo_backup.xlsx
+++ b/excel/3mo/ph_pl_data_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1990"/>
+  <dimension ref="A1:G1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50199,6 +50199,156 @@
         <v>50921.21875</v>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1991" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>3581.699951171875</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>3110.89990234375</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>3371.949951171875</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>3581.699951171875</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1992" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>5722.5</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>4787.89990234375</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>5192.9501953125</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>5722.5</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1993" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>9196.75</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>7489.0498046875</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>8186.2998046875</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>9196.75</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1994" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>3498.89990234375</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>2633.10009765625</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>2720.75</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>2633.10009765625</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1995" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>4636.7998046875</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>2855.35009765625</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>3713.550048828125</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>2855.35009765625</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B1996" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>8573.2001953125</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>6963.14990234375</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>8556</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>6963.14990234375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
